--- a/JOB/牛客笔面试/找工作进展.xlsx
+++ b/JOB/牛客笔面试/找工作进展.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codenotes\JOB\牛客笔面试\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28067CE7-98BF-4F37-BB90-20D1696AC421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22935" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +21,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="241">
   <si>
     <t>公司</t>
   </si>
@@ -144,9 +140,6 @@
     <t>网易互娱游戏</t>
   </si>
   <si>
-    <t>没做</t>
-  </si>
-  <si>
     <t>TPLINK 普联</t>
   </si>
   <si>
@@ -171,6 +164,24 @@
     <t>C++开发工程师（工站开发方向）</t>
   </si>
   <si>
+    <t>米哈游</t>
+  </si>
+  <si>
+    <t>游戏客户端工具开发</t>
+  </si>
+  <si>
+    <t>1.0/3</t>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/university/oppo/center/history</t>
+  </si>
+  <si>
+    <t>元戎启行</t>
+  </si>
+  <si>
+    <t>https://campus.iflytek.com/official-pc/delivery</t>
+  </si>
+  <si>
     <t>OPPO</t>
   </si>
   <si>
@@ -180,9 +191,6 @@
     <t>上海、深圳</t>
   </si>
   <si>
-    <t>https://careers.oppo.com/university/oppo/center/history</t>
-  </si>
-  <si>
     <t>科大讯飞</t>
   </si>
   <si>
@@ -192,15 +200,6 @@
     <t>合肥</t>
   </si>
   <si>
-    <t>https://campus.iflytek.com/official-pc/delivery</t>
-  </si>
-  <si>
-    <t>米哈游</t>
-  </si>
-  <si>
-    <t>游戏客户端工具开发</t>
-  </si>
-  <si>
     <t>https://jobs.mihoyo.com/#/campus/applyRecord</t>
   </si>
   <si>
@@ -210,9 +209,6 @@
     <t>后端开发</t>
   </si>
   <si>
-    <t>7/31</t>
-  </si>
-  <si>
     <t>亿联网络</t>
   </si>
   <si>
@@ -234,9 +230,6 @@
     <t>算法工程研发工程师</t>
   </si>
   <si>
-    <t>8/1</t>
-  </si>
-  <si>
     <t>星宸科技</t>
   </si>
   <si>
@@ -252,9 +245,6 @@
     <t>广州</t>
   </si>
   <si>
-    <t>8/4</t>
-  </si>
-  <si>
     <t>安路科技</t>
   </si>
   <si>
@@ -285,9 +275,6 @@
     <t>诺瓦</t>
   </si>
   <si>
-    <t>8/7</t>
-  </si>
-  <si>
     <t>大疆车载</t>
   </si>
   <si>
@@ -303,18 +290,12 @@
     <t>成都</t>
   </si>
   <si>
-    <t>8/8</t>
-  </si>
-  <si>
     <t>远景科技</t>
   </si>
   <si>
     <t>主控软件开发</t>
   </si>
   <si>
-    <t>8/9</t>
-  </si>
-  <si>
     <t>旷世</t>
   </si>
   <si>
@@ -327,34 +308,67 @@
     <t>客户端开发工程师</t>
   </si>
   <si>
-    <t>8/10</t>
-  </si>
-  <si>
     <t>地平线</t>
   </si>
   <si>
     <t>嵌入式系统开发</t>
   </si>
   <si>
-    <t>8/12</t>
+    <t>数禾科技</t>
+  </si>
+  <si>
+    <t>无合适</t>
+  </si>
+  <si>
+    <t>越疆机器人</t>
+  </si>
+  <si>
+    <t>要实习</t>
+  </si>
+  <si>
+    <t>影石创新科技</t>
+  </si>
+  <si>
+    <t>游卡游戏</t>
+  </si>
+  <si>
+    <t>服务端开发</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>容知日新</t>
   </si>
   <si>
     <t>招银网络科技</t>
   </si>
   <si>
-    <t>数禾科技</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>越疆机器人</t>
-  </si>
-  <si>
-    <t>要实习</t>
-  </si>
-  <si>
-    <t>影石创新科技</t>
+    <t>寒武纪</t>
+  </si>
+  <si>
+    <t>性能分析工具研发工程师</t>
+  </si>
+  <si>
+    <t>影联</t>
+  </si>
+  <si>
+    <t>灵犀互娱</t>
+  </si>
+  <si>
+    <t>点点互娱</t>
+  </si>
+  <si>
+    <t>三七互娱</t>
+  </si>
+  <si>
+    <t>吉比特</t>
+  </si>
+  <si>
+    <t>荣耀</t>
   </si>
   <si>
     <t>吉利</t>
@@ -398,9 +412,6 @@
     <t>算法工程师——计算机视觉</t>
   </si>
   <si>
-    <t>TCL</t>
-  </si>
-  <si>
     <t>AI产品专员</t>
   </si>
   <si>
@@ -447,9 +458,6 @@
   </si>
   <si>
     <t>高性能计算（大模型方向）</t>
-  </si>
-  <si>
-    <t>荣耀</t>
   </si>
   <si>
     <t>计算机视觉算法工程师</t>
@@ -542,7 +550,7 @@
         <sz val="11"/>
         <color rgb="FF141933"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -560,7 +568,7 @@
         <sz val="11"/>
         <color rgb="FF141933"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>IoT</t>
     </r>
@@ -617,9 +625,6 @@
     <t>研发工程师 - 工程/算法</t>
   </si>
   <si>
-    <t>元戎启行</t>
-  </si>
-  <si>
     <t>游戏客户端开发</t>
   </si>
   <si>
@@ -801,72 +806,20 @@
   </si>
   <si>
     <t>2.2/3</t>
-  </si>
-  <si>
-    <t>游卡游戏</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端开发</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/14</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCL</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>合肥</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>容知日新</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>招银网络科技</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>元戎启行</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程师</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒武纪</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能分析工具研发工程师</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,6 +913,12 @@
     </font>
     <font>
       <sz val="16"/>
+      <color rgb="FF666666"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF2B393F"/>
       <name val="楷体"/>
       <charset val="134"/>
@@ -973,12 +932,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FF131523"/>
-      <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF666666"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
@@ -998,6 +951,12 @@
     <font>
       <sz val="16"/>
       <color rgb="FF141414"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
@@ -1023,10 +982,154 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF141933"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="15"/>
@@ -1040,29 +1143,8 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="楷体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1077,13 +1159,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,18 +1195,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1126,13 +1394,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,8 +1697,8 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,30 +1706,36 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1235,31 +1751,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1274,13 +1787,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1289,42 +1802,74 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1582,29 +2127,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.4140625" customWidth="1"/>
+    <col min="1" max="1" width="19.4166666666667" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="1"/>
+    <col min="4" max="4" width="12.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.0833333333333" style="1"/>
     <col min="14" max="14" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.25" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1637,12 +2182,12 @@
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="38" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="36"/>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" ht="20.25" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1666,9 +2211,9 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" ht="20.25" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1687,14 +2232,14 @@
       <c r="F3" s="11"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="18"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" ht="20.25" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1720,9 +2265,9 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1748,9 +2293,9 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="29"/>
-    </row>
-    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" ht="20.25" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1769,14 +2314,14 @@
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="29"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" ht="20.25" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1791,14 +2336,14 @@
       <c r="F7" s="11"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="41"/>
-    </row>
-    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" ht="20.25" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1816,15 +2361,15 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="41"/>
-    </row>
-    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N8" s="42"/>
+    </row>
+    <row r="9" ht="20.25" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1843,14 +2388,14 @@
       <c r="F9" s="11"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="41"/>
-    </row>
-    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N9" s="42"/>
+    </row>
+    <row r="10" ht="20.25" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1868,25 +2413,23 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="18"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="41"/>
-    </row>
-    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" ht="20.25" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>17</v>
@@ -1897,22 +2440,22 @@
       <c r="F11" s="11"/>
       <c r="G11" s="21"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="41"/>
-    </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N11" s="42"/>
+    </row>
+    <row r="12" ht="20.25" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>34</v>
@@ -1922,23 +2465,23 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="41"/>
-    </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N12" s="42"/>
+    </row>
+    <row r="13" ht="20.25" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>14</v>
@@ -1949,22 +2492,22 @@
       <c r="F13" s="11"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="41"/>
-    </row>
-    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" ht="40.5" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>44</v>
+      <c r="C14" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>14</v>
@@ -1975,148 +2518,150 @@
       <c r="F14" s="11"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="41"/>
-    </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" ht="20.25" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="26">
         <v>45490</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="23"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="20.25" spans="1:14">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="E16" s="28">
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="26">
         <v>45495</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="41" t="s">
+      <c r="N16" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="20.25" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="E17" s="29">
         <v>45497</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="41"/>
-    </row>
-    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="I17" s="18"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" ht="20.25" spans="1:14">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>50</v>
+      <c r="C18" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="25">
+        <v>55</v>
+      </c>
+      <c r="E18" s="29">
         <v>45497</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="55"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N18" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" ht="20.25" spans="1:14">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
-        <v>58</v>
+      <c r="E19" s="5">
+        <v>45504</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="41"/>
-    </row>
-    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="42"/>
+    </row>
+    <row r="20" ht="20.25" spans="1:14">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2129,73 +2674,73 @@
       <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>58</v>
+      <c r="E20" s="10">
+        <v>45504</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="41"/>
-    </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="42"/>
+    </row>
+    <row r="21" ht="20.25" spans="1:14">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="32" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="E21" s="10">
+        <v>45504</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="41" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" ht="20.25" spans="1:14">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="32" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>58</v>
+      <c r="E22" s="14">
+        <v>45504</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-    </row>
-    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" ht="20.25" spans="1:14">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -2208,46 +2753,46 @@
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>66</v>
+      <c r="E23" s="16">
+        <v>45505</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-    </row>
-    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="J23" s="18"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" ht="20.25" spans="1:14">
       <c r="A24" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="31" t="s">
+      <c r="D24" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>66</v>
+      <c r="E24" s="17">
+        <v>45505</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-    </row>
-    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" ht="20.25" spans="1:14">
       <c r="A25" s="2">
         <v>4399</v>
       </c>
@@ -2255,300 +2800,300 @@
         <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>72</v>
+      <c r="E25" s="16">
+        <v>45508</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-    </row>
-    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+    </row>
+    <row r="26" ht="20.25" spans="1:14">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>72</v>
+      <c r="E26" s="10">
+        <v>45508</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-    </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+    </row>
+    <row r="27" ht="20.25" spans="1:14">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="3" t="s">
-        <v>72</v>
+      <c r="E27" s="10">
+        <v>45508</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-    </row>
-    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+    </row>
+    <row r="28" ht="20.25" spans="1:14">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="E28" s="17">
+        <v>45508</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-    </row>
-    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+    </row>
+    <row r="29" ht="20.25" spans="1:14">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>72</v>
+      <c r="E29" s="17">
+        <v>45508</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-    </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+    </row>
+    <row r="30" ht="20.25" spans="1:14">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>83</v>
+      <c r="E30" s="10">
+        <v>45511</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-    </row>
-    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+    </row>
+    <row r="31" ht="20.25" spans="1:14">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>85</v>
+      <c r="C31" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>83</v>
+      <c r="E31" s="17">
+        <v>45511</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-    </row>
-    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" ht="20.25" spans="1:14">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="26">
+        <v>45512</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+    </row>
+    <row r="33" ht="20.25" spans="1:14">
+      <c r="A33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-    </row>
-    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>92</v>
+      <c r="E33" s="26">
+        <v>45513</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-    </row>
-    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" ht="20.25" spans="1:14">
       <c r="A34" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>92</v>
+      <c r="E34" s="29">
+        <v>45513</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-    </row>
-    <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+    </row>
+    <row r="35" ht="20.25" spans="1:14">
       <c r="A35" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="33" t="s">
-        <v>96</v>
+      <c r="C35" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>97</v>
+      <c r="E35" s="29">
+        <v>45514</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-    </row>
-    <row r="36" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
-        <v>98</v>
+      <c r="H35" s="18"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+    </row>
+    <row r="36" ht="20.25" spans="1:14">
+      <c r="A36" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="34" t="s">
+      <c r="C36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
+      <c r="E36" s="5">
+        <v>45516</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
@@ -2557,20 +3102,20 @@
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
     </row>
-    <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
+    <row r="37" ht="20.25" spans="1:14">
+      <c r="A37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="31"/>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
@@ -2579,20 +3124,20 @@
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
     </row>
-    <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="35"/>
+    <row r="38" ht="20.25" spans="1:14">
+      <c r="A38" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="31"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
@@ -2601,275 +3146,344 @@
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
     </row>
-    <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+    <row r="39" ht="20.25" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="17">
+        <v>45516</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+    </row>
+    <row r="40" ht="20.25" spans="1:5">
+      <c r="A40" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="37">
+        <v>45518</v>
+      </c>
+    </row>
+    <row r="41" ht="20.25" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="17">
+        <v>45518</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" ht="20.25" spans="1:5">
+      <c r="A42" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="37">
+        <v>45518</v>
+      </c>
+    </row>
+    <row r="43" ht="20.25" spans="1:6">
+      <c r="A43" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" ht="20.25" spans="1:6">
+      <c r="A44" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="37"/>
-    </row>
-    <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F44" s="37"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="37">
+        <v>45518</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" ht="20.25" spans="1:7">
+      <c r="A45" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="37">
+        <v>45519</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" ht="20.25" spans="1:5">
+      <c r="A46" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" ht="20.25" spans="1:5">
+      <c r="A47" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" ht="20.25" spans="1:3">
+      <c r="A48" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" ht="20.25" spans="1:3">
+      <c r="A49" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" ht="20.25" spans="1:1">
+      <c r="A50" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" ht="20.25" spans="1:1">
+      <c r="A51" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="42" t="s">
+      <c r="D80" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="43"/>
-      <c r="P80" s="53"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" s="44" t="s">
-        <v>75</v>
+      <c r="F80" s="44"/>
+      <c r="P80" s="54"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D81" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="P81" s="53"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" s="45">
+        <v>8.7</v>
+      </c>
+      <c r="P81" s="54"/>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="46">
         <v>4399</v>
       </c>
       <c r="B82" t="s">
         <v>31</v>
       </c>
       <c r="C82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" t="s">
         <v>70</v>
       </c>
-      <c r="D82" t="s">
-        <v>71</v>
-      </c>
       <c r="E82" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="I82" s="43"/>
-      <c r="J82" s="46"/>
-      <c r="P82" s="53"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83" s="44" t="s">
-        <v>110</v>
+        <v>8.7</v>
+      </c>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I82" s="44"/>
+      <c r="J82" s="47"/>
+      <c r="P82" s="54"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="B83" t="s">
         <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E83" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43" t="s">
-        <v>112</v>
+        <v>8.7</v>
+      </c>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="M83" t="s">
-        <v>113</v>
-      </c>
-      <c r="P83" s="53"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="44" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="P83" s="54"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="B84" t="s">
         <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F84" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="P84" s="53"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="44" t="s">
-        <v>116</v>
+        <v>8.7</v>
+      </c>
+      <c r="F84" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="P84" s="54"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="B85" t="s">
         <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
         <v>20</v>
       </c>
       <c r="E85" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="P85" s="53"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.7</v>
+      </c>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="P85" s="54"/>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D86" t="s">
         <v>34</v>
       </c>
       <c r="E86" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="P86" s="53"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.8</v>
+      </c>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="P86" s="54"/>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E87" s="1">
         <v>8.9</v>
       </c>
-      <c r="F87" s="43"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="P87" s="53"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F87" s="44"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="P87" s="54"/>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>31</v>
@@ -2877,111 +3491,111 @@
       <c r="D88" t="s">
         <v>34</v>
       </c>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="P88" s="53"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="P88" s="54"/>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="43"/>
-      <c r="J89" s="54"/>
-      <c r="P89" s="53"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F89" s="44"/>
+      <c r="J89" s="55"/>
+      <c r="P89" s="54"/>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
-      </c>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="J90" s="46"/>
-      <c r="P90" s="53"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="J90" s="47"/>
+      <c r="P90" s="54"/>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>128</v>
-      </c>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
+        <v>133</v>
+      </c>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
       <c r="K91" t="s">
-        <v>129</v>
-      </c>
-      <c r="P91" s="53"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="P91" s="54"/>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E92" s="1">
         <v>7.13</v>
       </c>
-      <c r="F92" s="43"/>
-      <c r="P92" s="53"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F92" s="44"/>
+      <c r="P92" s="54"/>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B93" t="s">
         <v>31</v>
       </c>
-      <c r="P93" s="53"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P93" s="54"/>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E94" s="1">
         <v>8.9</v>
       </c>
-      <c r="F94" s="46"/>
-      <c r="P94" s="53"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F94" s="47"/>
+      <c r="P94" s="54"/>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
         <v>34</v>
@@ -2989,813 +3603,813 @@
       <c r="E95" s="1">
         <v>8.9</v>
       </c>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="I95" s="43"/>
-      <c r="J95" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="P95" s="53"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I95" s="44"/>
+      <c r="J95" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="P95" s="54"/>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E96" s="1">
         <v>8.9</v>
       </c>
-      <c r="F96" s="46"/>
-      <c r="P96" s="53"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F96" s="47"/>
+      <c r="P96" s="54"/>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
         <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E97" s="1">
         <v>8.1</v>
       </c>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="P97" s="53"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="P97" s="54"/>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>141</v>
-      </c>
-      <c r="D98" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E98" s="1">
         <v>7.26</v>
       </c>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="46"/>
-      <c r="P98" s="53"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="P98" s="54"/>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
         <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>143</v>
-      </c>
-      <c r="D99" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E99" s="1">
         <v>8.11</v>
       </c>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="K99" s="43"/>
-      <c r="L99" s="43"/>
-      <c r="M99" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="P99" s="53"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="P99" s="54"/>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E100" s="1">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="F100" s="43"/>
-      <c r="P100" s="53"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.12</v>
+      </c>
+      <c r="F100" s="44"/>
+      <c r="P100" s="54"/>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
         <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>74</v>
-      </c>
-      <c r="D101" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E101" s="1">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="P101" s="53"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.12</v>
+      </c>
+      <c r="P101" s="54"/>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>131</v>
-      </c>
-      <c r="D102" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" s="49" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="F102" s="43"/>
-      <c r="G102" s="49"/>
-      <c r="H102" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="I102" s="46"/>
-      <c r="P102" s="53"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A103" s="44" t="s">
-        <v>148</v>
+        <v>8.12</v>
+      </c>
+      <c r="F102" s="44"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="I102" s="47"/>
+      <c r="P102" s="54"/>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="45" t="s">
+        <v>152</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
-      </c>
-      <c r="D103" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E103" s="1">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="P103" s="53"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.12</v>
+      </c>
+      <c r="P103" s="54"/>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>150</v>
-      </c>
-      <c r="D104" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E104" s="1">
         <v>9.17</v>
       </c>
-      <c r="P104" s="53"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P104" s="54"/>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B105" t="s">
         <v>31</v>
       </c>
       <c r="C105" t="s">
-        <v>152</v>
-      </c>
-      <c r="D105" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D105" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="1">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="M105" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="P105" s="53"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.21</v>
+      </c>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="44"/>
+      <c r="K105" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="M105" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="P105" s="54"/>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B106" t="s">
         <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>154</v>
-      </c>
-      <c r="D106" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D106" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E106" s="1">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="F106" s="46"/>
-      <c r="P106" s="53"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.22</v>
+      </c>
+      <c r="F106" s="47"/>
+      <c r="P106" s="54"/>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B107" t="s">
         <v>31</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
-      </c>
-      <c r="D107" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E107" s="1">
         <v>8.26</v>
       </c>
-      <c r="F107" s="43"/>
-      <c r="H107" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="I107" s="46"/>
-      <c r="P107" s="53"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F107" s="44"/>
+      <c r="H107" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="I107" s="47"/>
+      <c r="P107" s="54"/>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B108" t="s">
         <v>31</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
-      </c>
-      <c r="D108" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D108" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E108" s="1">
         <v>8.26</v>
       </c>
-      <c r="P108" s="53"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P108" s="54"/>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
         <v>31</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
-      </c>
-      <c r="D109" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E109" s="1">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="P109" s="53"/>
-    </row>
-    <row r="110" spans="1:16" ht="18.5" x14ac:dyDescent="0.3">
+        <v>8.28</v>
+      </c>
+      <c r="P109" s="54"/>
+    </row>
+    <row r="110" ht="19.5" spans="1:16">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B110" t="s">
         <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>161</v>
-      </c>
-      <c r="D110" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E110" s="1">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="F110" s="43"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="P110" s="53"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.28</v>
+      </c>
+      <c r="F110" s="44"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="P110" s="54"/>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B111" t="s">
         <v>31</v>
       </c>
       <c r="C111" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E111" s="1">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="P111" s="53"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8.28</v>
+      </c>
+      <c r="P111" s="54"/>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B112" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D112" s="48" t="s">
+      <c r="C112" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E112" s="51">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="I112" s="43"/>
-      <c r="J112" s="46"/>
-      <c r="P112" s="53"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E112" s="52">
+        <v>8.29</v>
+      </c>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I112" s="44"/>
+      <c r="J112" s="47"/>
+      <c r="P112" s="54"/>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B113" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="D113" s="42" t="s">
+      <c r="C113" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D113" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E113" s="51">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="F113" s="43"/>
-      <c r="G113" s="48"/>
-      <c r="H113" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
-      <c r="K113" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="P113" s="53"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E113" s="52">
+        <v>8.29</v>
+      </c>
+      <c r="F113" s="44"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="P113" s="54"/>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B114" t="s">
         <v>31</v>
       </c>
-      <c r="C114" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="D114" s="48" t="s">
+      <c r="C114" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D114" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="51">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F114" s="43"/>
-      <c r="G114" s="48"/>
-      <c r="H114" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="I114" s="46"/>
-      <c r="J114" s="48"/>
-      <c r="P114" s="53"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E114" s="52">
+        <v>8.3</v>
+      </c>
+      <c r="F114" s="44"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="I114" s="47"/>
+      <c r="J114" s="49"/>
+      <c r="P114" s="54"/>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E115" s="1">
         <v>8.9</v>
       </c>
-      <c r="P115" s="53"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P115" s="54"/>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>176</v>
-      </c>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="48"/>
-      <c r="I116" s="48"/>
-      <c r="J116" s="48"/>
-      <c r="P116" s="53"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A117" s="44" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="49"/>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
+      <c r="P116" s="54"/>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="B117" t="s">
         <v>31</v>
       </c>
-      <c r="C117" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="D117" s="48" t="s">
+      <c r="C117" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D117" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E117" s="51">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F117" s="43"/>
-      <c r="G117" s="50"/>
-      <c r="H117" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="I117" s="43"/>
-      <c r="J117" s="43"/>
-      <c r="K117" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="P117" s="53"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E117" s="52">
+        <v>8.3</v>
+      </c>
+      <c r="F117" s="44"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="P117" s="54"/>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B118" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D118" s="42" t="s">
+      <c r="C118" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D118" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E118" s="51">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F118" s="43"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="I118" s="46"/>
-      <c r="J118" s="48"/>
-      <c r="P118" s="53"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E118" s="52">
+        <v>8.3</v>
+      </c>
+      <c r="F118" s="44"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="I118" s="47"/>
+      <c r="J118" s="49"/>
+      <c r="P118" s="54"/>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
         <v>11</v>
       </c>
       <c r="B119" t="s">
         <v>31</v>
       </c>
-      <c r="C119" s="48"/>
-      <c r="D119" s="48" t="s">
+      <c r="C119" s="49"/>
+      <c r="D119" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E119" s="51">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F119" s="46"/>
-      <c r="G119" s="48"/>
-      <c r="H119" s="48"/>
-      <c r="I119" s="48"/>
-      <c r="J119" s="48"/>
-      <c r="P119" s="53"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E119" s="52">
+        <v>8.3</v>
+      </c>
+      <c r="F119" s="47"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="49"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
+      <c r="P119" s="54"/>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B120" t="s">
         <v>31</v>
       </c>
-      <c r="C120" s="48"/>
-      <c r="D120" s="42" t="s">
+      <c r="C120" s="49"/>
+      <c r="D120" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E120" s="51">
+      <c r="E120" s="52">
         <v>9.1</v>
       </c>
-      <c r="F120" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="G120" s="48"/>
-      <c r="H120" s="48"/>
-      <c r="I120" s="48"/>
-      <c r="J120" s="48"/>
-      <c r="P120" s="53"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F120" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="G120" s="49"/>
+      <c r="H120" s="49"/>
+      <c r="I120" s="49"/>
+      <c r="J120" s="49"/>
+      <c r="P120" s="54"/>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B121" t="s">
         <v>31</v>
       </c>
-      <c r="C121" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="D121" s="48" t="s">
+      <c r="C121" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D121" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E121" s="51">
+      <c r="E121" s="52">
         <v>9.1</v>
       </c>
-      <c r="F121" s="43"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="43"/>
-      <c r="J121" s="43"/>
-      <c r="K121" s="43"/>
-      <c r="L121" s="43"/>
-      <c r="M121" s="43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44"/>
+      <c r="I121" s="44"/>
+      <c r="J121" s="44"/>
+      <c r="K121" s="44"/>
+      <c r="L121" s="44"/>
+      <c r="M121" s="44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>35</v>
       </c>
       <c r="B122" t="s">
         <v>31</v>
       </c>
-      <c r="C122" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D122" s="42" t="s">
+      <c r="C122" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D122" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E122" s="51">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F122" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E122" s="52">
+        <v>9.3</v>
+      </c>
+      <c r="F122" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="G122" s="49"/>
+      <c r="H122" s="49"/>
+      <c r="I122" s="49"/>
+      <c r="J122" s="49"/>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B123" t="s">
         <v>31</v>
       </c>
-      <c r="C123" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D123" s="42" t="s">
+      <c r="C123" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E123" s="51">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F123" s="43"/>
-      <c r="G123" s="43"/>
-      <c r="H123" s="50"/>
-      <c r="I123" s="50"/>
-      <c r="J123" s="46"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E123" s="52">
+        <v>9.3</v>
+      </c>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="47"/>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B124" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D124" s="42" t="s">
+      <c r="C124" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D124" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E124" s="51">
+      <c r="E124" s="52">
         <v>9.4</v>
       </c>
-      <c r="F124" s="43"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="I124" s="43"/>
-      <c r="J124" s="46" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F124" s="44"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I124" s="44"/>
+      <c r="J124" s="47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>22</v>
       </c>
-      <c r="C125" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="D125" s="42" t="s">
+      <c r="C125" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D125" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E125" s="51">
+      <c r="E125" s="52">
         <v>9.4</v>
       </c>
-      <c r="F125" s="43"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="I125" s="43"/>
-      <c r="J125" s="46"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F125" s="44"/>
+      <c r="G125" s="51"/>
+      <c r="H125" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="I125" s="44"/>
+      <c r="J125" s="47"/>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B126" t="s">
         <v>31</v>
       </c>
-      <c r="C126" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="D126" s="42" t="s">
+      <c r="C126" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D126" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E126" s="51">
+      <c r="E126" s="52">
         <v>9.4</v>
       </c>
-      <c r="F126" s="43"/>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="43"/>
-      <c r="K126" s="43"/>
-      <c r="L126" s="43"/>
-      <c r="M126" s="43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="44"/>
+      <c r="J126" s="44"/>
+      <c r="K126" s="44"/>
+      <c r="L126" s="44"/>
+      <c r="M126" s="44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B127" t="s">
         <v>26</v>
       </c>
-      <c r="C127" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="D127" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="E127" s="51"/>
-      <c r="F127" s="43"/>
-      <c r="G127" s="50"/>
-      <c r="H127" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="I127" s="43"/>
-      <c r="J127" s="43"/>
-      <c r="K127" s="43"/>
-      <c r="L127" s="43"/>
-      <c r="M127" s="43" t="s">
+      <c r="C127" s="49" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D127" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E127" s="52"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="51"/>
+      <c r="H127" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="I127" s="44"/>
+      <c r="J127" s="44"/>
+      <c r="K127" s="44"/>
+      <c r="L127" s="44"/>
+      <c r="M127" s="44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B128" t="s">
         <v>26</v>
       </c>
-      <c r="C128" s="48"/>
-      <c r="D128" s="48" t="s">
+      <c r="C128" s="49"/>
+      <c r="D128" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E128" s="51"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="48"/>
-      <c r="H128" s="48"/>
-      <c r="I128" s="48"/>
-      <c r="J128" s="48"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E128" s="52"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="49"/>
+      <c r="H128" s="49"/>
+      <c r="I128" s="49"/>
+      <c r="J128" s="49"/>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>15</v>
       </c>
       <c r="B129" t="s">
         <v>31</v>
       </c>
-      <c r="C129" s="52"/>
-      <c r="D129" s="42" t="s">
+      <c r="C129" s="53"/>
+      <c r="D129" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E129" s="51">
+      <c r="E129" s="52">
         <v>9.18</v>
       </c>
-      <c r="F129" s="43"/>
-      <c r="G129" s="48"/>
-      <c r="H129" s="46"/>
-      <c r="I129" s="46"/>
-      <c r="J129" s="48"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F129" s="44"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="49"/>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B130" t="s">
         <v>31</v>
       </c>
-      <c r="C130" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D130" s="42" t="s">
+      <c r="C130" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D130" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E130" s="51">
+      <c r="E130" s="52">
         <v>9.6</v>
       </c>
-      <c r="F130" s="43"/>
-      <c r="G130" s="48"/>
-      <c r="H130" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="I130" s="43"/>
-      <c r="J130" s="46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F130" s="44"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I130" s="44"/>
+      <c r="J130" s="47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B131" t="s">
         <v>31</v>
       </c>
       <c r="C131" t="s">
-        <v>205</v>
-      </c>
-      <c r="D131" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D131" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E131" s="1">
         <v>9.4</v>
       </c>
-      <c r="F131" s="46"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F131" s="47"/>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B132" t="s">
         <v>31</v>
       </c>
       <c r="C132" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D132" t="s">
         <v>14</v>
@@ -3803,17 +4417,17 @@
       <c r="E132" s="1">
         <v>9.6</v>
       </c>
-      <c r="F132" s="46"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F132" s="47"/>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B133" t="s">
         <v>31</v>
       </c>
       <c r="C133" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D133" t="s">
         <v>20</v>
@@ -3822,83 +4436,83 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B134" t="s">
         <v>31</v>
       </c>
       <c r="C134" t="s">
-        <v>96</v>
-      </c>
-      <c r="D134" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E134" s="1">
         <v>9.6</v>
       </c>
-      <c r="F134" s="43"/>
+      <c r="F134" s="44"/>
       <c r="G134" s="56"/>
-      <c r="H134" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="I134" s="46"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H134" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="I134" s="47"/>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B135" t="s">
         <v>31</v>
       </c>
       <c r="C135" t="s">
-        <v>211</v>
-      </c>
-      <c r="D135" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D135" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E135" s="1">
         <v>9.6</v>
       </c>
-      <c r="F135" s="43"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="43"/>
-      <c r="I135" s="43"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="44"/>
+      <c r="I135" s="44"/>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B136" t="s">
         <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>213</v>
-      </c>
-      <c r="D136" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D136" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E136" s="1">
         <v>9.6</v>
       </c>
-      <c r="F136" s="43"/>
+      <c r="F136" s="44"/>
       <c r="G136" s="56"/>
       <c r="H136" s="56"/>
       <c r="I136" s="56"/>
-      <c r="J136" s="46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J136" s="47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B137" t="s">
         <v>31</v>
       </c>
       <c r="C137" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
@@ -3907,74 +4521,74 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B138" t="s">
         <v>31</v>
       </c>
       <c r="C138" t="s">
-        <v>217</v>
-      </c>
-      <c r="D138" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D138" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E138" s="1">
         <v>9.6</v>
       </c>
-      <c r="F138" s="43"/>
-      <c r="J138" s="46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F138" s="44"/>
+      <c r="J138" s="47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B140" t="s">
         <v>31</v>
       </c>
-      <c r="D140" s="42" t="s">
+      <c r="D140" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E140" s="1">
         <v>9.11</v>
       </c>
-      <c r="F140" s="43"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F140" s="44"/>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>220</v>
-      </c>
-      <c r="D141" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D141" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E141" s="1">
         <v>9.16</v>
       </c>
-      <c r="F141" s="46"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F141" s="47"/>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>221</v>
-      </c>
-      <c r="D142" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D142" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E142" s="1">
         <v>9.16</v>
       </c>
-      <c r="F142" s="43"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F142" s="44"/>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D143" t="s">
         <v>14</v>
@@ -3983,9 +4597,9 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
@@ -3994,20 +4608,20 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>224</v>
-      </c>
-      <c r="D145" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D145" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E145" s="1">
         <v>9.16</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D146" t="s">
         <v>14</v>
@@ -4016,39 +4630,39 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>226</v>
-      </c>
-      <c r="D147" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D147" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E147" s="1">
         <v>9.16</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C149" t="s">
-        <v>229</v>
-      </c>
-      <c r="D149" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D149" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E149" s="1">
         <v>9.18</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
@@ -4056,67 +4670,69 @@
       <c r="E150" s="1">
         <v>9.19</v>
       </c>
-      <c r="F150" s="43"/>
-      <c r="G150" s="50"/>
-      <c r="H150" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="I150" s="43"/>
-      <c r="J150" s="46"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F150" s="44"/>
+      <c r="G150" s="51"/>
+      <c r="H150" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="I150" s="44"/>
+      <c r="J150" s="47"/>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>234</v>
-      </c>
-      <c r="D152" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D152" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F152" s="43"/>
-      <c r="H152" s="43"/>
-      <c r="I152" s="43"/>
-      <c r="J152" s="46"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="F152" s="44"/>
+      <c r="H152" s="44"/>
+      <c r="I152" s="44"/>
+      <c r="J152" s="47"/>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>235</v>
-      </c>
-      <c r="D153" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D153" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F153" s="43"/>
-      <c r="H153" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="I153" s="43"/>
-      <c r="J153" s="46"/>
+        <v>239</v>
+      </c>
+      <c r="F153" s="44"/>
+      <c r="H153" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="I153" s="44"/>
+      <c r="J153" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D71" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="D1:D71" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" tooltip="https://hr.tp-link.com.cn/jobDetail/6572" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C14" r:id="rId2" tooltip="https://kwh0jtf778.jobs.feishu.cn/229043/position/6970889531130759461/detail" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" tooltip="https://jobs.bytedance.com/campus/position/7373519468960008499/detail" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C15" r:id="rId4" location="/campus/position/5355" tooltip="游戏客户端工具开发" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C11" r:id="rId1" display="软件工程师" tooltip="https://hr.tp-link.com.cn/jobDetail/6572"/>
+    <hyperlink ref="C14" r:id="rId2" display="C++开发工程师（工站开发方向）" tooltip="https://kwh0jtf778.jobs.feishu.cn/229043/position/6970889531130759461/detail"/>
+    <hyperlink ref="C5" r:id="rId3" display="后端开发实习生-基础架构" tooltip="https://jobs.bytedance.com/campus/position/7373519468960008499/detail"/>
+    <hyperlink ref="C15" r:id="rId4" location="/campus/position/5355" display="游戏客户端工具开发" tooltip="游戏客户端工具开发"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/JOB/牛客笔面试/找工作进展.xlsx
+++ b/JOB/牛客笔面试/找工作进展.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codenotes\JOB\牛客笔面试\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC417F0A-2BA5-44ED-AA21-6BA48214313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="17655"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="14290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="243">
   <si>
     <t>公司</t>
   </si>
@@ -324,9 +328,6 @@
   </si>
   <si>
     <t>要实习</t>
-  </si>
-  <si>
-    <t>影石创新科技</t>
   </si>
   <si>
     <t>游卡游戏</t>
@@ -550,7 +551,7 @@
         <sz val="11"/>
         <color rgb="FF141933"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -568,7 +569,7 @@
         <sz val="11"/>
         <color rgb="FF141933"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>IoT</t>
     </r>
@@ -807,19 +808,27 @@
   <si>
     <t>2.2/3</t>
   </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>影石创新科技</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶音科技</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,154 +991,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF141933"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
@@ -1143,8 +1008,21 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,7 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,7 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="5" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,198 +1073,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1394,255 +1086,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1658,7 +1108,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1673,7 +1123,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1685,16 +1135,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1721,7 +1171,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1730,7 +1180,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1754,7 +1204,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1763,7 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1814,62 +1264,24 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2127,29 +1539,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.4166666666667" customWidth="1"/>
+    <col min="1" max="1" width="19.4140625" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="12.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.0833333333333" style="1"/>
+    <col min="4" max="4" width="12.58203125" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="1"/>
     <col min="14" max="14" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:14">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +1599,7 @@
       </c>
       <c r="N1" s="36"/>
     </row>
-    <row r="2" ht="20.25" spans="1:14">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2213,7 +1625,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" ht="20.25" spans="1:14">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2239,7 +1651,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" ht="20.25" spans="1:14">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2267,7 +1679,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" ht="24" customHeight="1" spans="1:14">
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2295,7 +1707,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" ht="20.25" spans="1:14">
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2321,7 +1733,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" ht="20.25" spans="1:14">
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -2343,7 +1755,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="42"/>
     </row>
-    <row r="8" ht="20.25" spans="1:14">
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2369,7 +1781,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="42"/>
     </row>
-    <row r="9" ht="20.25" spans="1:14">
+    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -2395,7 +1807,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="42"/>
     </row>
-    <row r="10" ht="20.25" spans="1:14">
+    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -2421,7 +1833,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="42"/>
     </row>
-    <row r="11" ht="20.25" spans="1:14">
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -2447,7 +1859,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="42"/>
     </row>
-    <row r="12" ht="20.25" spans="1:14">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2473,7 +1885,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="42"/>
     </row>
-    <row r="13" ht="20.25" spans="1:14">
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -2499,7 +1911,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="42"/>
     </row>
-    <row r="14" ht="40.5" spans="1:14">
+    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -2525,7 +1937,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="42"/>
     </row>
-    <row r="15" ht="20.25" spans="1:14">
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2555,7 +1967,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="20.25" spans="1:14">
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -2583,7 +1995,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" ht="20.25" spans="1:14">
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2609,7 +2021,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="42"/>
     </row>
-    <row r="18" ht="20.25" spans="1:14">
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2637,7 +2049,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" ht="20.25" spans="1:14">
+    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -2661,7 +2073,7 @@
       <c r="M19" s="31"/>
       <c r="N19" s="42"/>
     </row>
-    <row r="20" ht="20.25" spans="1:14">
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2686,7 +2098,7 @@
       <c r="M20" s="31"/>
       <c r="N20" s="42"/>
     </row>
-    <row r="21" ht="20.25" spans="1:14">
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2714,7 +2126,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" ht="20.25" spans="1:14">
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -2740,7 +2152,7 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
     </row>
-    <row r="23" ht="20.25" spans="1:14">
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -2766,7 +2178,7 @@
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
     </row>
-    <row r="24" ht="20.25" spans="1:14">
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>66</v>
       </c>
@@ -2792,7 +2204,7 @@
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" ht="20.25" spans="1:14">
+    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>4399</v>
       </c>
@@ -2818,7 +2230,7 @@
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" ht="20.25" spans="1:14">
+    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
@@ -2844,7 +2256,7 @@
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
     </row>
-    <row r="27" ht="20.25" spans="1:14">
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
@@ -2868,7 +2280,7 @@
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
     </row>
-    <row r="28" ht="20.25" spans="1:14">
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -2894,7 +2306,7 @@
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
     </row>
-    <row r="29" ht="20.25" spans="1:14">
+    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
@@ -2920,7 +2332,7 @@
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
     </row>
-    <row r="30" ht="20.25" spans="1:14">
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2946,7 +2358,7 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
     </row>
-    <row r="31" ht="20.25" spans="1:14">
+    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -2972,7 +2384,7 @@
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
     </row>
-    <row r="32" ht="20.25" spans="1:14">
+    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
@@ -2998,7 +2410,7 @@
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
     </row>
-    <row r="33" ht="20.25" spans="1:14">
+    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
@@ -3024,7 +2436,7 @@
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
     </row>
-    <row r="34" ht="20.25" spans="1:14">
+    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
@@ -3050,7 +2462,7 @@
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
     </row>
-    <row r="35" ht="20.25" spans="1:14">
+    <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
@@ -3076,7 +2488,7 @@
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
     </row>
-    <row r="36" ht="20.25" spans="1:14">
+    <row r="36" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -3102,7 +2514,7 @@
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
     </row>
-    <row r="37" ht="20.25" spans="1:14">
+    <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
@@ -3124,7 +2536,7 @@
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
     </row>
-    <row r="38" ht="20.25" spans="1:14">
+    <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
         <v>96</v>
       </c>
@@ -3146,9 +2558,9 @@
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
     </row>
-    <row r="39" ht="20.25" spans="1:7">
-      <c r="A39" s="2" t="s">
-        <v>98</v>
+    <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
+        <v>241</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>31</v>
@@ -3165,15 +2577,15 @@
       <c r="F39" s="38"/>
       <c r="G39" s="39"/>
     </row>
-    <row r="40" ht="20.25" spans="1:5">
+    <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="35" t="s">
         <v>99</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>17</v>
@@ -3182,9 +2594,9 @@
         <v>45518</v>
       </c>
     </row>
-    <row r="41" ht="20.25" spans="1:7">
+    <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>26</v>
@@ -3193,7 +2605,7 @@
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" s="17">
         <v>45518</v>
@@ -3201,9 +2613,9 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" ht="20.25" spans="1:5">
+    <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>31</v>
@@ -3218,9 +2630,9 @@
         <v>45518</v>
       </c>
     </row>
-    <row r="43" ht="20.25" spans="1:6">
+    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="35"/>
@@ -3228,15 +2640,15 @@
       <c r="E43" s="37"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" ht="20.25" spans="1:6">
+    <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="35" t="s">
         <v>105</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>106</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>55</v>
@@ -3244,11 +2656,11 @@
       <c r="E44" s="37">
         <v>45518</v>
       </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" ht="20.25" spans="1:7">
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>31</v>
@@ -3265,15 +2677,15 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" ht="20.25" spans="1:5">
+    <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
         <v>108</v>
-      </c>
-      <c r="E46" s="40"/>
-    </row>
-    <row r="47" ht="20.25" spans="1:5">
-      <c r="A47" s="41" t="s">
-        <v>109</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>31</v>
@@ -3283,9 +2695,9 @@
       </c>
       <c r="E47" s="40"/>
     </row>
-    <row r="48" ht="20.25" spans="1:3">
+    <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>31</v>
@@ -3294,28 +2706,50 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" ht="20.25" spans="1:3">
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A51" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" ht="20.25" spans="1:1">
-      <c r="A50" s="41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" ht="20.25" spans="1:1">
-      <c r="A51" s="41" t="s">
+    </row>
+    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A53" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="37">
+        <v>45522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80" t="s">
-        <v>113</v>
       </c>
       <c r="B80" t="s">
         <v>31</v>
@@ -3326,7 +2760,7 @@
       <c r="F80" s="44"/>
       <c r="P80" s="54"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="45" t="s">
         <v>73</v>
       </c>
@@ -3334,17 +2768,17 @@
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P81" s="54"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="46">
         <v>4399</v>
       </c>
@@ -3358,32 +2792,32 @@
         <v>70</v>
       </c>
       <c r="E82" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F82" s="44"/>
       <c r="G82" s="44"/>
       <c r="H82" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I82" s="44"/>
       <c r="J82" s="47"/>
       <c r="P82" s="54"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" t="s">
         <v>116</v>
-      </c>
-      <c r="B83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83" t="s">
-        <v>117</v>
       </c>
       <c r="D83" t="s">
         <v>70</v>
       </c>
       <c r="E83" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F83" s="44"/>
       <c r="G83" s="44"/>
@@ -3391,86 +2825,86 @@
       <c r="I83" s="44"/>
       <c r="J83" s="44"/>
       <c r="K83" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="M83" t="s">
         <v>118</v>
       </c>
-      <c r="M83" t="s">
+      <c r="P83" s="54"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="P83" s="54"/>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="45" t="s">
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" t="s">
         <v>120</v>
-      </c>
-      <c r="B84" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" t="s">
-        <v>121</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F84" s="47" t="s">
         <v>97</v>
       </c>
       <c r="P84" s="54"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
         <v>122</v>
-      </c>
-      <c r="B85" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" t="s">
-        <v>123</v>
       </c>
       <c r="D85" t="s">
         <v>20</v>
       </c>
       <c r="E85" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F85" s="44"/>
       <c r="G85" s="44"/>
       <c r="P85" s="54"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
         <v>34</v>
       </c>
       <c r="E86" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F86" s="44"/>
       <c r="G86" s="44"/>
       <c r="P86" s="54"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
       </c>
       <c r="C87" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" t="s">
         <v>126</v>
-      </c>
-      <c r="D87" t="s">
-        <v>127</v>
       </c>
       <c r="E87" s="1">
         <v>8.9</v>
@@ -3481,7 +2915,7 @@
       <c r="I87" s="47"/>
       <c r="P87" s="54"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -3497,15 +2931,15 @@
       <c r="I88" s="47"/>
       <c r="P88" s="54"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -3514,30 +2948,30 @@
       <c r="J89" s="55"/>
       <c r="P89" s="54"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F90" s="44"/>
       <c r="G90" s="44"/>
       <c r="J90" s="47"/>
       <c r="P90" s="54"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F91" s="44"/>
       <c r="G91" s="44"/>
@@ -3545,19 +2979,19 @@
       <c r="I91" s="44"/>
       <c r="J91" s="44"/>
       <c r="K91" t="s">
+        <v>133</v>
+      </c>
+      <c r="P91" s="54"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>134</v>
-      </c>
-      <c r="P91" s="54"/>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="A92" t="s">
-        <v>135</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D92" s="43" t="s">
         <v>17</v>
@@ -3568,21 +3002,21 @@
       <c r="F92" s="44"/>
       <c r="P92" s="54"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="P93" s="54"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>137</v>
       </c>
-      <c r="B93" t="s">
-        <v>31</v>
-      </c>
-      <c r="P93" s="54"/>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="A94" t="s">
+      <c r="C94" t="s">
         <v>138</v>
-      </c>
-      <c r="C94" t="s">
-        <v>139</v>
       </c>
       <c r="E94" s="1">
         <v>8.9</v>
@@ -3590,12 +3024,12 @@
       <c r="F94" s="47"/>
       <c r="P94" s="54"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95" t="s">
         <v>34</v>
@@ -3606,23 +3040,23 @@
       <c r="F95" s="44"/>
       <c r="G95" s="44"/>
       <c r="H95" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I95" s="44"/>
       <c r="J95" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="P95" s="54"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>141</v>
-      </c>
-      <c r="P95" s="54"/>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="A96" t="s">
-        <v>142</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E96" s="1">
         <v>8.9</v>
@@ -3630,9 +3064,9 @@
       <c r="F96" s="47"/>
       <c r="P96" s="54"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
         <v>31</v>
@@ -3650,15 +3084,15 @@
       <c r="G97" s="44"/>
       <c r="P97" s="54"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D98" s="43" t="s">
         <v>17</v>
@@ -3672,15 +3106,15 @@
       <c r="I98" s="47"/>
       <c r="P98" s="54"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
         <v>146</v>
-      </c>
-      <c r="B99" t="s">
-        <v>31</v>
-      </c>
-      <c r="C99" t="s">
-        <v>147</v>
       </c>
       <c r="D99" s="43" t="s">
         <v>17</v>
@@ -3693,37 +3127,37 @@
       <c r="H99" s="44"/>
       <c r="I99" s="44"/>
       <c r="J99" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K99" s="44"/>
       <c r="L99" s="44"/>
       <c r="M99" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P99" s="54"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D100" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E100" s="1">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F100" s="44"/>
       <c r="P100" s="54"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B101" t="s">
         <v>31</v>
@@ -3735,55 +3169,55 @@
         <v>17</v>
       </c>
       <c r="E101" s="1">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="P101" s="54"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D102" s="49" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F102" s="44"/>
       <c r="G102" s="50"/>
       <c r="H102" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I102" s="47"/>
       <c r="P102" s="54"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
       </c>
       <c r="C103" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="P103" s="54"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>153</v>
-      </c>
-      <c r="D103" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="1">
-        <v>8.12</v>
-      </c>
-      <c r="P103" s="54"/>
-    </row>
-    <row r="104" spans="1:16">
-      <c r="A104" t="s">
-        <v>154</v>
       </c>
       <c r="D104" s="43" t="s">
         <v>17</v>
@@ -3793,21 +3227,21 @@
       </c>
       <c r="P104" s="54"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" t="s">
         <v>155</v>
       </c>
-      <c r="B105" t="s">
-        <v>31</v>
-      </c>
-      <c r="C105" t="s">
-        <v>156</v>
-      </c>
       <c r="D105" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="1">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="F105" s="44"/>
       <c r="G105" s="44"/>
@@ -3815,14 +3249,14 @@
       <c r="I105" s="44"/>
       <c r="J105" s="44"/>
       <c r="K105" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M105" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P105" s="54"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -3830,26 +3264,26 @@
         <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D106" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E106" s="1">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="F106" s="47"/>
       <c r="P106" s="54"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
         <v>31</v>
       </c>
       <c r="C107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D107" s="43" t="s">
         <v>17</v>
@@ -3859,20 +3293,20 @@
       </c>
       <c r="F107" s="44"/>
       <c r="H107" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I107" s="47"/>
       <c r="P107" s="54"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" t="s">
         <v>160</v>
-      </c>
-      <c r="B108" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108" t="s">
-        <v>161</v>
       </c>
       <c r="D108" s="43" t="s">
         <v>17</v>
@@ -3882,39 +3316,39 @@
       </c>
       <c r="P108" s="54"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" t="s">
         <v>162</v>
       </c>
-      <c r="B109" t="s">
-        <v>31</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="D109" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="P109" s="54"/>
+    </row>
+    <row r="110" spans="1:16" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>163</v>
       </c>
-      <c r="D109" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" s="1">
-        <v>8.28</v>
-      </c>
-      <c r="P109" s="54"/>
-    </row>
-    <row r="110" ht="19.5" spans="1:16">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" t="s">
         <v>164</v>
       </c>
-      <c r="B110" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110" t="s">
-        <v>165</v>
-      </c>
       <c r="D110" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E110" s="1">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F110" s="44"/>
       <c r="G110" s="51"/>
@@ -3922,119 +3356,119 @@
       <c r="I110" s="51"/>
       <c r="J110" s="44"/>
       <c r="K110" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="P110" s="54"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>166</v>
       </c>
-      <c r="P110" s="54"/>
-    </row>
-    <row r="111" spans="1:16">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" t="s">
         <v>167</v>
-      </c>
-      <c r="B111" t="s">
-        <v>31</v>
-      </c>
-      <c r="C111" t="s">
-        <v>168</v>
       </c>
       <c r="D111" t="s">
         <v>70</v>
       </c>
       <c r="E111" s="1">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="P111" s="54"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>168</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="49" t="s">
         <v>169</v>
-      </c>
-      <c r="B112" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" s="49" t="s">
-        <v>170</v>
       </c>
       <c r="D112" s="49" t="s">
         <v>14</v>
       </c>
       <c r="E112" s="52">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="F112" s="44"/>
       <c r="G112" s="44"/>
       <c r="H112" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I112" s="44"/>
       <c r="J112" s="47"/>
       <c r="P112" s="54"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B113" t="s">
-        <v>31</v>
-      </c>
-      <c r="C113" s="49" t="s">
-        <v>172</v>
-      </c>
       <c r="D113" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E113" s="52">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="F113" s="44"/>
       <c r="G113" s="49"/>
       <c r="H113" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I113" s="44"/>
       <c r="J113" s="44"/>
       <c r="K113" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="P113" s="54"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>174</v>
       </c>
-      <c r="P113" s="54"/>
-    </row>
-    <row r="114" spans="1:16">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="49" t="s">
         <v>175</v>
-      </c>
-      <c r="B114" t="s">
-        <v>31</v>
-      </c>
-      <c r="C114" s="49" t="s">
-        <v>176</v>
       </c>
       <c r="D114" s="49" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="52">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F114" s="44"/>
       <c r="G114" s="49"/>
       <c r="H114" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I114" s="47"/>
       <c r="J114" s="49"/>
       <c r="P114" s="54"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>177</v>
+      </c>
+      <c r="C115" t="s">
         <v>178</v>
-      </c>
-      <c r="C115" t="s">
-        <v>179</v>
       </c>
       <c r="E115" s="1">
         <v>8.9</v>
       </c>
       <c r="P115" s="54"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>48</v>
       </c>
@@ -4048,7 +3482,7 @@
       <c r="J116" s="49"/>
       <c r="P116" s="54"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="45" t="s">
         <v>44</v>
       </c>
@@ -4056,52 +3490,52 @@
         <v>31</v>
       </c>
       <c r="C117" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D117" s="49" t="s">
         <v>14</v>
       </c>
       <c r="E117" s="52">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F117" s="44"/>
       <c r="G117" s="51"/>
       <c r="H117" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I117" s="44"/>
       <c r="J117" s="44"/>
       <c r="K117" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="P117" s="54"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>182</v>
       </c>
-      <c r="P117" s="54"/>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="B118" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118" s="49" t="s">
-        <v>184</v>
-      </c>
       <c r="D118" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E118" s="52">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F118" s="44"/>
       <c r="G118" s="51"/>
       <c r="H118" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I118" s="47"/>
       <c r="J118" s="49"/>
       <c r="P118" s="54"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -4113,7 +3547,7 @@
         <v>14</v>
       </c>
       <c r="E119" s="52">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F119" s="47"/>
       <c r="G119" s="49"/>
@@ -4122,9 +3556,9 @@
       <c r="J119" s="49"/>
       <c r="P119" s="54"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B120" t="s">
         <v>31</v>
@@ -4137,7 +3571,7 @@
         <v>9.1</v>
       </c>
       <c r="F120" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G120" s="49"/>
       <c r="H120" s="49"/>
@@ -4145,15 +3579,15 @@
       <c r="J120" s="49"/>
       <c r="P120" s="54"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>187</v>
+      </c>
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="49" t="s">
         <v>188</v>
-      </c>
-      <c r="B121" t="s">
-        <v>31</v>
-      </c>
-      <c r="C121" s="49" t="s">
-        <v>189</v>
       </c>
       <c r="D121" s="49" t="s">
         <v>14</v>
@@ -4169,10 +3603,10 @@
       <c r="K121" s="44"/>
       <c r="L121" s="44"/>
       <c r="M121" s="44" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>35</v>
       </c>
@@ -4180,37 +3614,37 @@
         <v>31</v>
       </c>
       <c r="C122" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D122" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="52">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F122" s="44" t="s">
         <v>191</v>
-      </c>
-      <c r="D122" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="52">
-        <v>9.3</v>
-      </c>
-      <c r="F122" s="44" t="s">
-        <v>192</v>
       </c>
       <c r="G122" s="49"/>
       <c r="H122" s="49"/>
       <c r="I122" s="49"/>
       <c r="J122" s="49"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123" t="s">
         <v>31</v>
       </c>
       <c r="C123" s="49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D123" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E123" s="52">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F123" s="44"/>
       <c r="G123" s="44"/>
@@ -4218,9 +3652,9 @@
       <c r="I123" s="51"/>
       <c r="J123" s="47"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B124" t="s">
         <v>31</v>
@@ -4237,19 +3671,19 @@
       <c r="F124" s="44"/>
       <c r="G124" s="51"/>
       <c r="H124" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I124" s="44"/>
       <c r="J124" s="47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>22</v>
       </c>
       <c r="C125" s="49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D125" s="43" t="s">
         <v>17</v>
@@ -4260,20 +3694,20 @@
       <c r="F125" s="44"/>
       <c r="G125" s="51"/>
       <c r="H125" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I125" s="44"/>
       <c r="J125" s="47"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="49" t="s">
         <v>198</v>
-      </c>
-      <c r="B126" t="s">
-        <v>31</v>
-      </c>
-      <c r="C126" s="49" t="s">
-        <v>199</v>
       </c>
       <c r="D126" s="43" t="s">
         <v>17</v>
@@ -4289,37 +3723,37 @@
       <c r="K126" s="44"/>
       <c r="L126" s="44"/>
       <c r="M126" s="44" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127" t="s">
-        <v>201</v>
       </c>
       <c r="B127" t="s">
         <v>26</v>
       </c>
       <c r="C127" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D127" s="43" t="s">
         <v>202</v>
-      </c>
-      <c r="D127" s="43" t="s">
-        <v>203</v>
       </c>
       <c r="E127" s="52"/>
       <c r="F127" s="44"/>
       <c r="G127" s="51"/>
       <c r="H127" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I127" s="44"/>
       <c r="J127" s="44"/>
       <c r="K127" s="44"/>
       <c r="L127" s="44"/>
       <c r="M127" s="44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -4337,7 +3771,7 @@
       <c r="I128" s="49"/>
       <c r="J128" s="49"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -4357,9 +3791,9 @@
       <c r="I129" s="47"/>
       <c r="J129" s="49"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B130" t="s">
         <v>31</v>
@@ -4376,22 +3810,22 @@
       <c r="F130" s="44"/>
       <c r="G130" s="49"/>
       <c r="H130" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I130" s="44"/>
       <c r="J130" s="47" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" t="s">
         <v>207</v>
-      </c>
-      <c r="B131" t="s">
-        <v>31</v>
-      </c>
-      <c r="C131" t="s">
-        <v>208</v>
       </c>
       <c r="D131" s="43" t="s">
         <v>17</v>
@@ -4401,9 +3835,9 @@
       </c>
       <c r="F131" s="47"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B132" t="s">
         <v>31</v>
@@ -4419,15 +3853,15 @@
       </c>
       <c r="F132" s="47"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" t="s">
         <v>210</v>
-      </c>
-      <c r="B133" t="s">
-        <v>31</v>
-      </c>
-      <c r="C133" t="s">
-        <v>211</v>
       </c>
       <c r="D133" t="s">
         <v>20</v>
@@ -4436,9 +3870,9 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B134" t="s">
         <v>31</v>
@@ -4455,19 +3889,19 @@
       <c r="F134" s="44"/>
       <c r="G134" s="56"/>
       <c r="H134" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I134" s="47"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>212</v>
+      </c>
+      <c r="B135" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" t="s">
         <v>213</v>
-      </c>
-      <c r="B135" t="s">
-        <v>31</v>
-      </c>
-      <c r="C135" t="s">
-        <v>214</v>
       </c>
       <c r="D135" s="43" t="s">
         <v>17</v>
@@ -4480,15 +3914,15 @@
       <c r="H135" s="44"/>
       <c r="I135" s="44"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" t="s">
         <v>215</v>
-      </c>
-      <c r="B136" t="s">
-        <v>31</v>
-      </c>
-      <c r="C136" t="s">
-        <v>216</v>
       </c>
       <c r="D136" s="43" t="s">
         <v>17</v>
@@ -4501,18 +3935,18 @@
       <c r="H136" s="56"/>
       <c r="I136" s="56"/>
       <c r="J136" s="47" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>216</v>
+      </c>
+      <c r="B137" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" t="s">
         <v>217</v>
-      </c>
-      <c r="B137" t="s">
-        <v>31</v>
-      </c>
-      <c r="C137" t="s">
-        <v>218</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
@@ -4521,15 +3955,15 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>218</v>
+      </c>
+      <c r="B138" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" t="s">
         <v>219</v>
-      </c>
-      <c r="B138" t="s">
-        <v>31</v>
-      </c>
-      <c r="C138" t="s">
-        <v>220</v>
       </c>
       <c r="D138" s="43" t="s">
         <v>17</v>
@@ -4539,17 +3973,17 @@
       </c>
       <c r="F138" s="44"/>
       <c r="J138" s="47" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
-        <v>222</v>
       </c>
       <c r="B140" t="s">
         <v>31</v>
@@ -4562,9 +3996,9 @@
       </c>
       <c r="F140" s="44"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D141" s="43" t="s">
         <v>17</v>
@@ -4574,9 +4008,9 @@
       </c>
       <c r="F141" s="47"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D142" s="43" t="s">
         <v>17</v>
@@ -4586,9 +4020,9 @@
       </c>
       <c r="F142" s="44"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D143" t="s">
         <v>14</v>
@@ -4597,9 +4031,9 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
@@ -4608,9 +4042,9 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D145" s="43" t="s">
         <v>17</v>
@@ -4619,9 +4053,9 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D146" t="s">
         <v>14</v>
@@ -4630,9 +4064,9 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D147" s="43" t="s">
         <v>17</v>
@@ -4641,17 +4075,17 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
+      <c r="C149" t="s">
         <v>231</v>
-      </c>
-      <c r="C149" t="s">
-        <v>232</v>
       </c>
       <c r="D149" s="43" t="s">
         <v>17</v>
@@ -4660,9 +4094,9 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
@@ -4673,66 +4107,64 @@
       <c r="F150" s="44"/>
       <c r="G150" s="51"/>
       <c r="H150" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I150" s="44"/>
       <c r="J150" s="47"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="A152" t="s">
-        <v>237</v>
-      </c>
       <c r="D152" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F152" s="44"/>
       <c r="H152" s="44"/>
       <c r="I152" s="44"/>
       <c r="J152" s="47"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>237</v>
+      </c>
+      <c r="D153" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D153" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F153" s="44"/>
       <c r="H153" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I153" s="44"/>
       <c r="J153" s="47"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="D1:D71" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="D1:D71" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" display="软件工程师" tooltip="https://hr.tp-link.com.cn/jobDetail/6572"/>
-    <hyperlink ref="C14" r:id="rId2" display="C++开发工程师（工站开发方向）" tooltip="https://kwh0jtf778.jobs.feishu.cn/229043/position/6970889531130759461/detail"/>
-    <hyperlink ref="C5" r:id="rId3" display="后端开发实习生-基础架构" tooltip="https://jobs.bytedance.com/campus/position/7373519468960008499/detail"/>
-    <hyperlink ref="C15" r:id="rId4" location="/campus/position/5355" display="游戏客户端工具开发" tooltip="游戏客户端工具开发"/>
+    <hyperlink ref="C11" r:id="rId1" tooltip="https://hr.tp-link.com.cn/jobDetail/6572" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C14" r:id="rId2" tooltip="https://kwh0jtf778.jobs.feishu.cn/229043/position/6970889531130759461/detail" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" tooltip="https://jobs.bytedance.com/campus/position/7373519468960008499/detail" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C15" r:id="rId4" location="/campus/position/5355" tooltip="游戏客户端工具开发" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/JOB/牛客笔面试/找工作进展.xlsx
+++ b/JOB/牛客笔面试/找工作进展.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codenotes\JOB\牛客笔面试\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F262F04-1F92-49E8-A2B4-6E159005C00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="17655"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -52,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="277">
   <si>
     <t>公司</t>
   </si>
@@ -647,7 +651,7 @@
         <sz val="11"/>
         <color rgb="FF141933"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -665,7 +669,7 @@
         <sz val="11"/>
         <color rgb="FF141933"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>IoT</t>
     </r>
@@ -901,19 +905,60 @@
   <si>
     <t>2.2/3</t>
   </si>
+  <si>
+    <t>瑞昱半导体</t>
+  </si>
+  <si>
+    <t>hc很少 偏硬</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>施耐德电气</t>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰角</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏，岗位少，有一个AI岗</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐集团</t>
+  </si>
+  <si>
+    <t>只有ai助理研究员</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>华勤技术</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>万得</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++开发工程师</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>传音控股</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,154 +1127,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF141933"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
@@ -1243,8 +1144,43 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF141414"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1259,7 +1195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,7 +1207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399914548173467"/>
+        <fgColor theme="5" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,198 +1231,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1494,255 +1244,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1758,7 +1266,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1773,7 +1281,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1785,16 +1293,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1824,7 +1332,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1836,7 +1344,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1866,13 +1374,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1920,62 +1428,33 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2233,32 +1712,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.4166666666667" customWidth="1"/>
+    <col min="1" max="1" width="19.4140625" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="12.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.0833333333333" style="1"/>
+    <col min="4" max="4" width="12.58203125" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="1"/>
     <col min="14" max="14" width="53.75" customWidth="1"/>
     <col min="16" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="10.9166666666667" customWidth="1"/>
-    <col min="18" max="18" width="15.8333333333333" customWidth="1"/>
+    <col min="17" max="17" width="10.9140625" customWidth="1"/>
+    <col min="18" max="18" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:25">
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +1793,7 @@
       <c r="X1" s="38"/>
       <c r="Y1" s="38"/>
     </row>
-    <row r="2" ht="20.25" spans="1:25">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -2356,7 +1835,7 @@
       <c r="X2" s="38"/>
       <c r="Y2" s="38"/>
     </row>
-    <row r="3" ht="20.25" spans="1:20">
+    <row r="3" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2392,7 +1871,7 @@
       </c>
       <c r="T3" s="43"/>
     </row>
-    <row r="4" ht="20.25" spans="1:20">
+    <row r="4" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2428,7 +1907,7 @@
       </c>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" ht="24" customHeight="1" spans="1:18">
+    <row r="5" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -2463,7 +1942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" ht="20.25" spans="1:18">
+    <row r="6" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -2495,7 +1974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" ht="20.25" spans="1:14">
+    <row r="7" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -2516,8 +1995,14 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="45"/>
-    </row>
-    <row r="8" ht="20.25" spans="1:14">
+      <c r="P7" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="R7" s="61" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -2542,8 +2027,14 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="45"/>
-    </row>
-    <row r="9" ht="20.25" spans="1:14">
+      <c r="P8" t="s">
+        <v>267</v>
+      </c>
+      <c r="R8" s="61" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -2568,8 +2059,14 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="45"/>
-    </row>
-    <row r="10" ht="20.25" spans="1:14">
+      <c r="P9" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -2594,8 +2091,14 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="45"/>
-    </row>
-    <row r="11" ht="20.25" spans="1:14">
+      <c r="P10" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="R10" s="61" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -2621,7 +2124,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="45"/>
     </row>
-    <row r="12" ht="20.25" spans="1:14">
+    <row r="12" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -2647,7 +2150,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="45"/>
     </row>
-    <row r="13" ht="20.25" spans="1:14">
+    <row r="13" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
@@ -2673,7 +2176,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="45"/>
     </row>
-    <row r="14" ht="20.25" spans="1:14">
+    <row r="14" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>55</v>
       </c>
@@ -2699,7 +2202,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="45"/>
     </row>
-    <row r="15" ht="20.25" spans="1:14">
+    <row r="15" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -2729,7 +2232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="20.25" spans="1:14">
+    <row r="16" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -2757,7 +2260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" ht="20.25" spans="1:14">
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -2783,7 +2286,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" ht="20.25" spans="1:14">
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -2811,7 +2314,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" ht="20.25" spans="1:14">
+    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>69</v>
       </c>
@@ -2835,7 +2338,7 @@
       <c r="M19" s="33"/>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" ht="20.25" spans="1:14">
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -2861,7 +2364,7 @@
       <c r="M20" s="33"/>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" ht="20.25" spans="1:14">
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>74</v>
       </c>
@@ -2891,7 +2394,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" ht="20.25" spans="1:14">
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>78</v>
       </c>
@@ -2919,7 +2422,7 @@
       <c r="M22" s="33"/>
       <c r="N22" s="33"/>
     </row>
-    <row r="23" ht="20.25" spans="1:14">
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2945,7 +2448,7 @@
       <c r="M23" s="33"/>
       <c r="N23" s="33"/>
     </row>
-    <row r="24" ht="20.25" spans="1:14">
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>81</v>
       </c>
@@ -2971,7 +2474,7 @@
       <c r="M24" s="33"/>
       <c r="N24" s="33"/>
     </row>
-    <row r="25" ht="20.25" spans="1:14">
+    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>4399</v>
       </c>
@@ -2997,7 +2500,7 @@
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
     </row>
-    <row r="26" ht="20.25" spans="1:14">
+    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>86</v>
       </c>
@@ -3023,7 +2526,7 @@
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
     </row>
-    <row r="27" ht="20.25" spans="1:14">
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>88</v>
       </c>
@@ -3047,7 +2550,7 @@
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
     </row>
-    <row r="28" ht="20.25" spans="1:14">
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>90</v>
       </c>
@@ -3073,7 +2576,7 @@
       <c r="M28" s="33"/>
       <c r="N28" s="33"/>
     </row>
-    <row r="29" ht="20.25" spans="1:14">
+    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>93</v>
       </c>
@@ -3099,7 +2602,7 @@
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
     </row>
-    <row r="30" ht="20.25" spans="1:14">
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
@@ -3125,7 +2628,7 @@
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
     </row>
-    <row r="31" ht="20.25" spans="1:14">
+    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
@@ -3151,7 +2654,7 @@
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
     </row>
-    <row r="32" ht="20.25" spans="1:14">
+    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>98</v>
       </c>
@@ -3177,7 +2680,7 @@
       <c r="M32" s="33"/>
       <c r="N32" s="33"/>
     </row>
-    <row r="33" ht="20.25" spans="1:14">
+    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
@@ -3203,7 +2706,7 @@
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
     </row>
-    <row r="34" ht="20.25" spans="1:14">
+    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>103</v>
       </c>
@@ -3229,7 +2732,7 @@
       <c r="M34" s="33"/>
       <c r="N34" s="33"/>
     </row>
-    <row r="35" ht="20.25" spans="1:14">
+    <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>105</v>
       </c>
@@ -3255,7 +2758,7 @@
       <c r="M35" s="33"/>
       <c r="N35" s="33"/>
     </row>
-    <row r="36" ht="20.25" spans="1:14">
+    <row r="36" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -3281,7 +2784,7 @@
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
     </row>
-    <row r="37" ht="20.25" spans="1:7">
+    <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>109</v>
       </c>
@@ -3300,7 +2803,7 @@
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
     </row>
-    <row r="38" ht="20.25" spans="1:5">
+    <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>110</v>
       </c>
@@ -3317,7 +2820,7 @@
         <v>45518</v>
       </c>
     </row>
-    <row r="39" ht="20.25" spans="1:7">
+    <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>112</v>
       </c>
@@ -3336,7 +2839,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" ht="20.25" spans="1:5">
+    <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
         <v>114</v>
       </c>
@@ -3353,7 +2856,7 @@
         <v>45518</v>
       </c>
     </row>
-    <row r="41" ht="20.25" spans="1:6">
+    <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>115</v>
       </c>
@@ -3363,7 +2866,7 @@
       <c r="E41" s="41"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" ht="20.25" spans="1:6">
+    <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>116</v>
       </c>
@@ -3381,7 +2884,7 @@
       </c>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" ht="20.25" spans="1:7">
+    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="42" t="s">
         <v>118</v>
       </c>
@@ -3400,7 +2903,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" ht="20.25" spans="1:5">
+    <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>119</v>
       </c>
@@ -3409,7 +2912,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="43"/>
     </row>
-    <row r="45" ht="20.25" spans="1:5">
+    <row r="45" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>120</v>
       </c>
@@ -3426,7 +2929,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="46" ht="20.25" spans="1:4">
+    <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>15</v>
       </c>
@@ -3434,7 +2937,7 @@
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
     </row>
-    <row r="47" ht="20.25" spans="1:4">
+    <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
         <v>122</v>
       </c>
@@ -3442,7 +2945,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" ht="20.25" spans="1:4">
+    <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>123</v>
       </c>
@@ -3450,7 +2953,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" ht="20.25" spans="1:5">
+    <row r="49" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="42" t="s">
         <v>124</v>
       </c>
@@ -3467,7 +2970,7 @@
         <v>45522</v>
       </c>
     </row>
-    <row r="50" ht="20.25" spans="1:14">
+    <row r="50" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>125</v>
       </c>
@@ -3483,12 +2986,12 @@
       <c r="E50" s="41">
         <v>45523</v>
       </c>
-      <c r="N50" cm="1">
-        <f ca="1" t="array" ref="N50">A42:N50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="20.25" spans="1:5">
+      <c r="N50" t="str" cm="1">
+        <f t="array" ref="N50">A42:N50</f>
+        <v>寒武纪</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>127</v>
       </c>
@@ -3505,7 +3008,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="52" ht="20.25" spans="1:5">
+    <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>129</v>
       </c>
@@ -3522,7 +3025,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="53" ht="20.25" spans="1:5">
+    <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>130</v>
       </c>
@@ -3539,7 +3042,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="54" ht="20.25" spans="1:5">
+    <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="42" t="s">
         <v>21</v>
       </c>
@@ -3556,7 +3059,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="55" ht="20.25" spans="1:4">
+    <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>133</v>
       </c>
@@ -3566,7 +3069,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" ht="20.25" spans="1:5">
+    <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>135</v>
       </c>
@@ -3581,7 +3084,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="57" ht="20.25" spans="1:4">
+    <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="42" t="s">
         <v>138</v>
       </c>
@@ -3589,61 +3092,76 @@
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
     </row>
-    <row r="58" ht="20.25" spans="1:4">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="62" t="s">
+        <v>273</v>
+      </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" ht="20.25" spans="1:4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" ht="20.25" spans="1:4">
-      <c r="A60" s="37"/>
+    <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A59" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="41">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="63" t="s">
+        <v>276</v>
+      </c>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
     </row>
-    <row r="61" ht="20.25" spans="1:4">
+    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" ht="20.25" spans="1:4">
+    <row r="62" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" ht="20.25" spans="1:4">
+    <row r="63" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="37"/>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
     </row>
-    <row r="64" ht="20.25" spans="1:4">
+    <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" ht="20.25" spans="1:4">
+    <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" ht="20.25" spans="1:4">
+    <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="37"/>
       <c r="B66" s="37"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>139</v>
       </c>
@@ -3656,7 +3174,7 @@
       <c r="F75" s="47"/>
       <c r="P75" s="56"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>88</v>
       </c>
@@ -3670,11 +3188,11 @@
         <v>28</v>
       </c>
       <c r="E76" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P76" s="56"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="49">
         <v>4399</v>
       </c>
@@ -3688,7 +3206,7 @@
         <v>85</v>
       </c>
       <c r="E77" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F77" s="47"/>
       <c r="G77" s="47"/>
@@ -3699,7 +3217,7 @@
       <c r="J77" s="28"/>
       <c r="P77" s="56"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>142</v>
       </c>
@@ -3713,7 +3231,7 @@
         <v>85</v>
       </c>
       <c r="E78" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F78" s="47"/>
       <c r="G78" s="47"/>
@@ -3728,7 +3246,7 @@
       </c>
       <c r="P78" s="56"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>146</v>
       </c>
@@ -3742,14 +3260,14 @@
         <v>18</v>
       </c>
       <c r="E79" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F79" s="28" t="s">
         <v>20</v>
       </c>
       <c r="P79" s="56"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="48" t="s">
         <v>148</v>
       </c>
@@ -3763,13 +3281,13 @@
         <v>28</v>
       </c>
       <c r="E80" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F80" s="47"/>
       <c r="G80" s="47"/>
       <c r="P80" s="56"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>112</v>
       </c>
@@ -3783,13 +3301,13 @@
         <v>47</v>
       </c>
       <c r="E81" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F81" s="47"/>
       <c r="G81" s="47"/>
       <c r="P81" s="56"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -3811,7 +3329,7 @@
       <c r="I82" s="28"/>
       <c r="P82" s="56"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -3827,7 +3345,7 @@
       <c r="I83" s="28"/>
       <c r="P83" s="56"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>154</v>
       </c>
@@ -3844,7 +3362,7 @@
       <c r="J84" s="57"/>
       <c r="P84" s="56"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -3859,7 +3377,7 @@
       <c r="J85" s="28"/>
       <c r="P85" s="56"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>158</v>
       </c>
@@ -3879,7 +3397,7 @@
       </c>
       <c r="P86" s="56"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>161</v>
       </c>
@@ -3898,7 +3416,7 @@
       <c r="F87" s="47"/>
       <c r="P87" s="56"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -3907,7 +3425,7 @@
       </c>
       <c r="P88" s="56"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>130</v>
       </c>
@@ -3920,7 +3438,7 @@
       <c r="F89" s="28"/>
       <c r="P89" s="56"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>122</v>
       </c>
@@ -3944,7 +3462,7 @@
       </c>
       <c r="P90" s="56"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -3960,7 +3478,7 @@
       <c r="F91" s="28"/>
       <c r="P91" s="56"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -3980,7 +3498,7 @@
       <c r="G92" s="47"/>
       <c r="P92" s="56"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>169</v>
       </c>
@@ -4002,7 +3520,7 @@
       <c r="I93" s="28"/>
       <c r="P93" s="56"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -4032,7 +3550,7 @@
       </c>
       <c r="P94" s="56"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -4046,12 +3564,12 @@
         <v>23</v>
       </c>
       <c r="E95" s="1">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F95" s="47"/>
       <c r="P95" s="56"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>163</v>
       </c>
@@ -4065,11 +3583,11 @@
         <v>23</v>
       </c>
       <c r="E96" s="1">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="P96" s="56"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>175</v>
       </c>
@@ -4083,7 +3601,7 @@
         <v>18</v>
       </c>
       <c r="E97" s="1">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F97" s="47"/>
       <c r="G97" s="52"/>
@@ -4093,7 +3611,7 @@
       <c r="I97" s="28"/>
       <c r="P97" s="56"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="48" t="s">
         <v>177</v>
       </c>
@@ -4107,11 +3625,11 @@
         <v>23</v>
       </c>
       <c r="E98" s="1">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="P98" s="56"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -4123,7 +3641,7 @@
       </c>
       <c r="P99" s="56"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>180</v>
       </c>
@@ -4137,7 +3655,7 @@
         <v>23</v>
       </c>
       <c r="E100" s="1">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="F100" s="47"/>
       <c r="G100" s="47"/>
@@ -4152,7 +3670,7 @@
       </c>
       <c r="P100" s="56"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4166,12 +3684,12 @@
         <v>23</v>
       </c>
       <c r="E101" s="1">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="F101" s="28"/>
       <c r="P101" s="56"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -4194,7 +3712,7 @@
       <c r="I102" s="28"/>
       <c r="P102" s="56"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -4212,7 +3730,7 @@
       </c>
       <c r="P103" s="56"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -4226,11 +3744,11 @@
         <v>23</v>
       </c>
       <c r="E104" s="1">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="P104" s="56"/>
     </row>
-    <row r="105" ht="19.5" spans="1:16">
+    <row r="105" spans="1:16" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>189</v>
       </c>
@@ -4244,7 +3762,7 @@
         <v>23</v>
       </c>
       <c r="E105" s="1">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F105" s="47"/>
       <c r="G105" s="53"/>
@@ -4256,7 +3774,7 @@
       </c>
       <c r="P105" s="56"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>192</v>
       </c>
@@ -4270,11 +3788,11 @@
         <v>85</v>
       </c>
       <c r="E106" s="1">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="P106" s="56"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>194</v>
       </c>
@@ -4288,7 +3806,7 @@
         <v>18</v>
       </c>
       <c r="E107" s="54">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="F107" s="47"/>
       <c r="G107" s="47"/>
@@ -4299,7 +3817,7 @@
       <c r="J107" s="28"/>
       <c r="P107" s="56"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>196</v>
       </c>
@@ -4313,7 +3831,7 @@
         <v>23</v>
       </c>
       <c r="E108" s="54">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="F108" s="47"/>
       <c r="G108" s="51"/>
@@ -4327,7 +3845,7 @@
       </c>
       <c r="P108" s="56"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -4341,7 +3859,7 @@
         <v>28</v>
       </c>
       <c r="E109" s="54">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F109" s="47"/>
       <c r="G109" s="51"/>
@@ -4352,7 +3870,7 @@
       <c r="J109" s="51"/>
       <c r="P109" s="56"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>203</v>
       </c>
@@ -4364,7 +3882,7 @@
       </c>
       <c r="P110" s="56"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>61</v>
       </c>
@@ -4378,7 +3896,7 @@
       <c r="J111" s="51"/>
       <c r="P111" s="56"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="48" t="s">
         <v>57</v>
       </c>
@@ -4392,7 +3910,7 @@
         <v>18</v>
       </c>
       <c r="E112" s="54">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F112" s="47"/>
       <c r="G112" s="53"/>
@@ -4406,7 +3924,7 @@
       </c>
       <c r="P112" s="56"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>208</v>
       </c>
@@ -4420,7 +3938,7 @@
         <v>23</v>
       </c>
       <c r="E113" s="54">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F113" s="47"/>
       <c r="G113" s="53"/>
@@ -4431,7 +3949,7 @@
       <c r="J113" s="51"/>
       <c r="P113" s="56"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -4443,7 +3961,7 @@
         <v>18</v>
       </c>
       <c r="E114" s="54">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F114" s="28"/>
       <c r="G114" s="51"/>
@@ -4452,7 +3970,7 @@
       <c r="J114" s="51"/>
       <c r="P114" s="56"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>211</v>
       </c>
@@ -4475,7 +3993,7 @@
       <c r="J115" s="51"/>
       <c r="P115" s="56"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>213</v>
       </c>
@@ -4502,7 +4020,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -4516,7 +4034,7 @@
         <v>23</v>
       </c>
       <c r="E117" s="54">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F117" s="47" t="s">
         <v>217</v>
@@ -4526,7 +4044,7 @@
       <c r="I117" s="51"/>
       <c r="J117" s="51"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>218</v>
       </c>
@@ -4540,7 +4058,7 @@
         <v>23</v>
       </c>
       <c r="E118" s="54">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F118" s="47"/>
       <c r="G118" s="47"/>
@@ -4548,7 +4066,7 @@
       <c r="I118" s="53"/>
       <c r="J118" s="28"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>219</v>
       </c>
@@ -4574,7 +4092,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -4595,7 +4113,7 @@
       <c r="I120" s="47"/>
       <c r="J120" s="28"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>223</v>
       </c>
@@ -4622,7 +4140,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>226</v>
       </c>
@@ -4649,7 +4167,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>53</v>
       </c>
@@ -4667,7 +4185,7 @@
       <c r="I123" s="51"/>
       <c r="J123" s="51"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -4687,7 +4205,7 @@
       <c r="I124" s="28"/>
       <c r="J124" s="51"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>231</v>
       </c>
@@ -4713,7 +4231,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>232</v>
       </c>
@@ -4731,7 +4249,7 @@
       </c>
       <c r="F126" s="28"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>234</v>
       </c>
@@ -4749,7 +4267,7 @@
       </c>
       <c r="F127" s="28"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>235</v>
       </c>
@@ -4766,7 +4284,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>237</v>
       </c>
@@ -4789,7 +4307,7 @@
       </c>
       <c r="I129" s="28"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>238</v>
       </c>
@@ -4810,7 +4328,7 @@
       <c r="H130" s="47"/>
       <c r="I130" s="47"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>123</v>
       </c>
@@ -4834,7 +4352,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>241</v>
       </c>
@@ -4851,7 +4369,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>243</v>
       </c>
@@ -4872,12 +4390,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>246</v>
       </c>
@@ -4892,7 +4410,7 @@
       </c>
       <c r="F135" s="47"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>247</v>
       </c>
@@ -4904,7 +4422,7 @@
       </c>
       <c r="F136" s="28"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>248</v>
       </c>
@@ -4916,7 +4434,7 @@
       </c>
       <c r="F137" s="47"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>249</v>
       </c>
@@ -4927,7 +4445,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>250</v>
       </c>
@@ -4938,7 +4456,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>251</v>
       </c>
@@ -4949,7 +4467,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>252</v>
       </c>
@@ -4960,7 +4478,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>253</v>
       </c>
@@ -4971,12 +4489,12 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>255</v>
       </c>
@@ -4990,7 +4508,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>257</v>
       </c>
@@ -5008,7 +4526,7 @@
       <c r="I145" s="47"/>
       <c r="J145" s="28"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>259</v>
       </c>
@@ -5019,7 +4537,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>261</v>
       </c>
@@ -5034,7 +4552,7 @@
       <c r="I147" s="47"/>
       <c r="J147" s="28"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>262</v>
       </c>
@@ -5052,17 +4570,15 @@
       <c r="J148" s="28"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="D1:D66" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="D1:D66" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" display="软件工程师" tooltip="https://hr.tp-link.com.cn/jobDetail/6572"/>
-    <hyperlink ref="C14" r:id="rId2" display="C++开发工程师" tooltip="https://kwh0jtf778.jobs.feishu.cn/229043/position/6970889531130759461/detail"/>
-    <hyperlink ref="C5" r:id="rId3" display="后端开发实习生-基础架构" tooltip="https://jobs.bytedance.com/campus/position/7373519468960008499/detail"/>
-    <hyperlink ref="C15" r:id="rId4" location="/campus/position/5355" display="游戏客户端工具开发" tooltip="游戏客户端工具开发"/>
+    <hyperlink ref="C11" r:id="rId1" tooltip="https://hr.tp-link.com.cn/jobDetail/6572" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C14" r:id="rId2" tooltip="https://kwh0jtf778.jobs.feishu.cn/229043/position/6970889531130759461/detail" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" tooltip="https://jobs.bytedance.com/campus/position/7373519468960008499/detail" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C15" r:id="rId4" location="/campus/position/5355" tooltip="游戏客户端工具开发" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/JOB/牛客笔面试/找工作进展.xlsx
+++ b/JOB/牛客笔面试/找工作进展.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codenotes\JOB\牛客笔面试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F262F04-1F92-49E8-A2B4-6E159005C00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7950964-5E20-40C3-A5BF-18932A92EEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-5010" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="304">
   <si>
     <t>公司</t>
   </si>
@@ -94,9 +94,6 @@
     <t>https://docs.qq.com/smartsheet/DTlJheU1xWVdrdFVO?tab=ss_187wbk&amp;viewId=vQXOWN&amp;_t=1723430020305</t>
   </si>
   <si>
-    <t>数禾科技</t>
-  </si>
-  <si>
     <t>正式批</t>
   </si>
   <si>
@@ -193,6 +190,18 @@
     <t>风电 控制软件 算法工程师</t>
   </si>
   <si>
+    <t>瑞昱半导体</t>
+  </si>
+  <si>
+    <t>hc很少 偏硬</t>
+  </si>
+  <si>
+    <t>施耐德电气</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
     <t>robosense</t>
   </si>
   <si>
@@ -202,15 +211,33 @@
     <t>深圳</t>
   </si>
   <si>
+    <t>鹰角</t>
+  </si>
+  <si>
+    <t>游戏，岗位少，有一个AI岗</t>
+  </si>
+  <si>
     <t>网易互娱游戏</t>
   </si>
   <si>
+    <t>搜狐集团</t>
+  </si>
+  <si>
+    <t>只有ai助理研究员</t>
+  </si>
+  <si>
     <t>TPLINK 普联</t>
   </si>
   <si>
     <t>软件工程师</t>
   </si>
   <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>单片机要uart</t>
+  </si>
+  <si>
     <t>TPLINK 联洲</t>
   </si>
   <si>
@@ -223,42 +250,39 @@
     <t>软件开发工程师（终端图像处理）</t>
   </si>
   <si>
-    <t>禾赛科技</t>
+    <t>C++开发工程师 1/n</t>
+  </si>
+  <si>
+    <t>米哈游</t>
+  </si>
+  <si>
+    <t>游戏客户端工具开发</t>
+  </si>
+  <si>
+    <t>1.0/3</t>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/university/oppo/center/history</t>
+  </si>
+  <si>
+    <t>元戎启行</t>
+  </si>
+  <si>
+    <t>https://campus.iflytek.com/official-pc/delivery</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <t>多媒体开发工程师（C++）</t>
+  </si>
+  <si>
+    <t>上海、深圳</t>
   </si>
   <si>
     <t>C++开发工程师</t>
   </si>
   <si>
-    <t>米哈游</t>
-  </si>
-  <si>
-    <t>游戏客户端工具开发</t>
-  </si>
-  <si>
-    <t>1.0/3</t>
-  </si>
-  <si>
-    <t>https://careers.oppo.com/university/oppo/center/history</t>
-  </si>
-  <si>
-    <t>元戎启行</t>
-  </si>
-  <si>
-    <t>https://campus.iflytek.com/official-pc/delivery</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <t>多媒体开发工程师（C++）</t>
-  </si>
-  <si>
-    <t>上海、深圳</t>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
     <t>合肥</t>
   </si>
   <si>
@@ -271,9 +295,6 @@
     <t>后端开发</t>
   </si>
   <si>
-    <t>亿联网络</t>
-  </si>
-  <si>
     <t>嵌入式工程师</t>
   </si>
   <si>
@@ -286,7 +307,7 @@
     <t>软件开发工程师3/n</t>
   </si>
   <si>
-    <t>硕博</t>
+    <t>卡双29</t>
   </si>
   <si>
     <t>http://career.i-tek.cn/front.home.index/schoolList</t>
@@ -337,24 +358,21 @@
     <t>惠州</t>
   </si>
   <si>
-    <t>联云科技</t>
-  </si>
-  <si>
     <t>嵌入式AI开发</t>
   </si>
   <si>
     <t>诺瓦</t>
   </si>
   <si>
+    <t>嵌入式工程师1/2</t>
+  </si>
+  <si>
     <t>大疆车载</t>
   </si>
   <si>
     <t>C++软件开发工程师</t>
   </si>
   <si>
-    <t>新易盛</t>
-  </si>
-  <si>
     <t>自动化软件开发</t>
   </si>
   <si>
@@ -367,9 +385,6 @@
     <t>主控软件开发</t>
   </si>
   <si>
-    <t>旷世</t>
-  </si>
-  <si>
     <t>自动驾驶工具链</t>
   </si>
   <si>
@@ -385,12 +400,6 @@
     <t>嵌入式系统开发</t>
   </si>
   <si>
-    <t>影石创新科技</t>
-  </si>
-  <si>
-    <t>游卡游戏</t>
-  </si>
-  <si>
     <t>服务端开发</t>
   </si>
   <si>
@@ -406,24 +415,27 @@
     <t>招银网络科技</t>
   </si>
   <si>
+    <t>https://cmbntjob.cmbchina.com/login</t>
+  </si>
+  <si>
     <t>寒武纪</t>
   </si>
   <si>
     <t>性能分析工具/AI解决方案</t>
   </si>
   <si>
-    <t>联影</t>
+    <t>软件开发2/2</t>
   </si>
   <si>
     <t>灵犀互娱</t>
   </si>
   <si>
-    <t>吉比特</t>
-  </si>
-  <si>
     <t>游戏研发</t>
   </si>
   <si>
+    <t>机器学习引擎/数据开发/后端</t>
+  </si>
+  <si>
     <t>荣耀</t>
   </si>
   <si>
@@ -472,7 +484,31 @@
     <t>江苏</t>
   </si>
   <si>
-    <t>经纬恒润</t>
+    <t>万得</t>
+  </si>
+  <si>
+    <t>海尔</t>
+  </si>
+  <si>
+    <t>嵌入式开发1/3</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>readme</t>
+  </si>
+  <si>
+    <t>影像算法/C++开发工程师</t>
+  </si>
+  <si>
+    <t>快手</t>
+  </si>
+  <si>
+    <t>游戏开发工程师1/n</t>
+  </si>
+  <si>
+    <t>momenta</t>
   </si>
   <si>
     <t>吉利</t>
@@ -535,9 +571,6 @@
   </si>
   <si>
     <t>海尔智家</t>
-  </si>
-  <si>
-    <t>青岛</t>
   </si>
   <si>
     <t>三一</t>
@@ -768,187 +801,272 @@
     <t>腾讯</t>
   </si>
   <si>
+    <t>HR简历初筛</t>
+  </si>
+  <si>
+    <t>客户端开发工程师-智能创作</t>
+  </si>
+  <si>
+    <t>(3.1/4)</t>
+  </si>
+  <si>
+    <t>TPLINK普联</t>
+  </si>
+  <si>
+    <t>软件工程师（杭州）</t>
+  </si>
+  <si>
+    <t>24*16</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>AI软件开发</t>
+  </si>
+  <si>
+    <t>杭州（强制上海）</t>
+  </si>
+  <si>
+    <t>免笔试</t>
+  </si>
+  <si>
+    <t>(25+3.5)*12+100</t>
+  </si>
+  <si>
+    <t>游卡</t>
+  </si>
+  <si>
+    <t>杭州国芯</t>
+  </si>
+  <si>
+    <t>AI算法工程师</t>
+  </si>
+  <si>
+    <t>散爆网络</t>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>Unity游戏开发工程师</t>
+  </si>
+  <si>
+    <t>FUNPLUS</t>
+  </si>
+  <si>
+    <t>零跑</t>
+  </si>
+  <si>
+    <t>三维点云算法工程师</t>
+  </si>
+  <si>
+    <t>C++/Go 开发工程师</t>
+  </si>
+  <si>
+    <t>bilibili</t>
+  </si>
+  <si>
+    <t>UE开发工程师</t>
+  </si>
+  <si>
+    <t>杭州银行</t>
+  </si>
+  <si>
+    <t>总行信息技术部定向生(软件研发方向)(杭州)</t>
+  </si>
+  <si>
+    <t>华睿科技</t>
+  </si>
+  <si>
+    <t>钉钉</t>
+  </si>
+  <si>
+    <t>阿里淘天</t>
+  </si>
+  <si>
+    <t>阿里菜鸟</t>
+  </si>
+  <si>
+    <t>莉莉丝</t>
+  </si>
+  <si>
+    <t>叠纸游戏</t>
+  </si>
+  <si>
+    <t>银泰星</t>
+  </si>
+  <si>
+    <t>鹰角网络</t>
+  </si>
+  <si>
+    <t>中科曙光</t>
+  </si>
+  <si>
+    <t>每日互动</t>
+  </si>
+  <si>
+    <t>迪普科技</t>
+  </si>
+  <si>
+    <t>友塔游戏</t>
+  </si>
+  <si>
+    <t>2.1/3</t>
+  </si>
+  <si>
+    <t>美的</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>蚂蚁</t>
+  </si>
+  <si>
+    <t>盒马</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>2.2/3</t>
+  </si>
+  <si>
     <t>快手</t>
-  </si>
-  <si>
-    <t>HR简历初筛</t>
-  </si>
-  <si>
-    <t>客户端开发工程师-智能创作</t>
-  </si>
-  <si>
-    <t>(3.1/4)</t>
-  </si>
-  <si>
-    <t>TPLINK普联</t>
-  </si>
-  <si>
-    <t>软件工程师（杭州）</t>
-  </si>
-  <si>
-    <t>24*16</t>
-  </si>
-  <si>
-    <t>华为</t>
-  </si>
-  <si>
-    <t>AI软件开发</t>
-  </si>
-  <si>
-    <t>杭州（强制上海）</t>
-  </si>
-  <si>
-    <t>免笔试</t>
-  </si>
-  <si>
-    <t>(25+3.5)*12+100</t>
-  </si>
-  <si>
-    <t>游卡</t>
-  </si>
-  <si>
-    <t>杭州国芯</t>
-  </si>
-  <si>
-    <t>AI算法工程师</t>
-  </si>
-  <si>
-    <t>散爆网络</t>
-  </si>
-  <si>
-    <t>小米</t>
-  </si>
-  <si>
-    <t>Unity游戏开发工程师</t>
-  </si>
-  <si>
-    <t>FUNPLUS</t>
-  </si>
-  <si>
-    <t>零跑</t>
-  </si>
-  <si>
-    <t>三维点云算法工程师</t>
-  </si>
-  <si>
-    <t>C++/Go 开发工程师</t>
-  </si>
-  <si>
-    <t>bilibili</t>
-  </si>
-  <si>
-    <t>UE开发工程师</t>
-  </si>
-  <si>
-    <t>杭州银行</t>
-  </si>
-  <si>
-    <t>总行信息技术部定向生(软件研发方向)(杭州)</t>
-  </si>
-  <si>
-    <t>华睿科技</t>
-  </si>
-  <si>
-    <t>钉钉</t>
-  </si>
-  <si>
-    <t>阿里淘天</t>
-  </si>
-  <si>
-    <t>阿里菜鸟</t>
-  </si>
-  <si>
-    <t>莉莉丝</t>
-  </si>
-  <si>
-    <t>叠纸游戏</t>
-  </si>
-  <si>
-    <t>银泰星</t>
-  </si>
-  <si>
-    <t>鹰角网络</t>
-  </si>
-  <si>
-    <t>中科曙光</t>
-  </si>
-  <si>
-    <t>每日互动</t>
-  </si>
-  <si>
-    <t>迪普科技</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>友塔游戏</t>
-  </si>
-  <si>
-    <t>2.1/3</t>
-  </si>
-  <si>
-    <t>美的</t>
-  </si>
-  <si>
-    <t>9.20</t>
-  </si>
-  <si>
-    <t>蚂蚁</t>
-  </si>
-  <si>
-    <t>盒马</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>2.2/3</t>
-  </si>
-  <si>
-    <t>瑞昱半导体</t>
-  </si>
-  <si>
-    <t>hc很少 偏硬</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>施耐德电气</t>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰角</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏，岗位少，有一个AI岗</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜狐集团</t>
-  </si>
-  <si>
-    <t>只有ai助理研究员</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾赛科技</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿联网络</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>联云科技</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>新易盛</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷世</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>地平线</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>联影</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式软开</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>传音控股</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬恒润</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>华勤技术</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>万得</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++开发工程师</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>传音控股</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动开发工程师</t>
+  </si>
+  <si>
+    <t>游卡游戏</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉比特</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>大疆</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>数禾科技</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易雷火</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏研发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2/2</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/baai/42174?recommendCode=DS6B4ejS#/jobs</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/sunnyoptical/45602?recommendCode=DSEsAgxs#/jobs?page=1&amp;anchorName=jobsList</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shuhegroup1.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>影石创新科技</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐畅游</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -956,9 +1074,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,6 +1152,12 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF1890FF"/>
       <name val="楷体"/>
       <charset val="134"/>
@@ -1041,12 +1165,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FF33383D"/>
-      <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
@@ -1095,6 +1213,12 @@
     </font>
     <font>
       <sz val="16"/>
+      <color rgb="FF33383D"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF141414"/>
       <name val="楷体"/>
       <charset val="134"/>
@@ -1104,6 +1228,19 @@
       <color rgb="FF141414"/>
       <name val="楷体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1127,6 +1264,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF141933"/>
       <name val="Arial"/>
@@ -1139,31 +1290,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="16"/>
+      <color rgb="FF141414"/>
+      <name val="楷体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1173,14 +1310,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF141414"/>
-      <name val="楷体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color rgb="FF141933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1207,7 +1363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39988402966399123"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39988402966399123"/>
+        <fgColor theme="6" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,12 +1407,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,7 +1431,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1281,7 +1446,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1293,46 +1458,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1344,7 +1512,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1356,40 +1524,64 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1401,13 +1593,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1416,36 +1608,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1720,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1770,41 +1969,41 @@
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>12</v>
+      <c r="P1" s="69" t="s">
+        <v>295</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>14</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="17"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="5">
         <v>45439</v>
@@ -1817,36 +2016,36 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="33"/>
-      <c r="P2" s="44" t="s">
+      <c r="N2" s="34"/>
+      <c r="P2" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="44" t="s">
-        <v>20</v>
-      </c>
       <c r="S2" s="2"/>
-      <c r="T2" s="41"/>
+      <c r="T2" s="45"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="10">
         <v>45441</v>
@@ -1854,35 +2053,35 @@
       <c r="F3" s="11"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="23"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="33"/>
-      <c r="P3" s="44" t="s">
+      <c r="N3" s="34"/>
+      <c r="P3" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="43"/>
+      <c r="T3" s="46"/>
     </row>
     <row r="4" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="10">
         <v>45441</v>
@@ -1892,33 +2091,33 @@
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
       <c r="J4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="33"/>
-      <c r="P4" s="44" t="s">
+      <c r="N4" s="34"/>
+      <c r="P4" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="50" t="s">
         <v>30</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="44" t="s">
-        <v>31</v>
       </c>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="14">
         <v>45441</v>
@@ -1928,32 +2127,32 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="33"/>
-      <c r="P5" s="44" t="s">
+      <c r="N5" s="34"/>
+      <c r="P5" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="50" t="s">
         <v>35</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="44" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E6" s="16">
         <v>45432</v>
@@ -1961,91 +2160,91 @@
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="23"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="33"/>
+      <c r="N6" s="34"/>
       <c r="P6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="50" t="s">
         <v>41</v>
-      </c>
-      <c r="R6" s="44" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="17"/>
       <c r="F7" s="11"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="23"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="45"/>
-      <c r="P7" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="R7" s="61" t="s">
-        <v>266</v>
+      <c r="N7" s="51"/>
+      <c r="P7" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="54" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
+      <c r="A8" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E8" s="16">
         <v>45487</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="23"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="45"/>
+      <c r="N8" s="51"/>
       <c r="P8" t="s">
-        <v>267</v>
-      </c>
-      <c r="R8" s="61" t="s">
-        <v>268</v>
+        <v>46</v>
+      </c>
+      <c r="R8" s="54" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
+      <c r="A9" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="10">
         <v>45447</v>
@@ -2053,31 +2252,31 @@
       <c r="F9" s="11"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="23"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="45"/>
-      <c r="P9" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="R9" s="61" t="s">
-        <v>270</v>
+      <c r="N9" s="51"/>
+      <c r="P9" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="54" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="10">
         <v>45447</v>
@@ -2085,83 +2284,89 @@
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="23"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="45"/>
-      <c r="P10" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="R10" s="61" t="s">
-        <v>272</v>
+      <c r="N10" s="51"/>
+      <c r="P10" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" s="54" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="17">
         <v>45447</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="23"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="45"/>
+      <c r="N11" s="51"/>
+      <c r="P11" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="54" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="E12" s="17">
         <v>45476</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="45"/>
+      <c r="N12" s="51"/>
     </row>
     <row r="13" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="10">
         <v>45490</v>
@@ -2169,271 +2374,271 @@
       <c r="F13" s="11"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="45"/>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="1:25" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>55</v>
+      <c r="A14" s="69" t="s">
+        <v>275</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="17">
         <v>45476</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="23"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="45"/>
+      <c r="N14" s="51"/>
     </row>
     <row r="15" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="27">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="28">
         <v>45490</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="23"/>
+      <c r="H15" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="25"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="45" t="s">
-        <v>60</v>
+      <c r="N15" s="51" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>61</v>
+      <c r="A16" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="27">
+      <c r="E16" s="28">
         <v>45495</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="18"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="45" t="s">
-        <v>62</v>
+      <c r="N16" s="51" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>63</v>
+      <c r="A17" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="31">
+        <v>12</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="32">
         <v>45497</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="45"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>66</v>
+      <c r="A18" s="70" t="s">
+        <v>276</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="31">
+        <v>75</v>
+      </c>
+      <c r="E18" s="32">
         <v>45497</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="45" t="s">
-        <v>68</v>
+      <c r="N18" s="51" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>69</v>
+      <c r="A19" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>301</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
         <v>45504</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="45"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="51"/>
     </row>
     <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>71</v>
+      <c r="A20" s="70" t="s">
+        <v>277</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E20" s="10">
         <v>45504</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="45"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="51"/>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>74</v>
+      <c r="A21" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E21" s="10">
         <v>45504</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="45" t="s">
-        <v>77</v>
+      <c r="F21" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="51" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>78</v>
+      <c r="A22" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>79</v>
+        <v>37</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="14">
         <v>45504</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="F22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E23" s="16">
         <v>45505</v>
@@ -2442,50 +2647,50 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>81</v>
+      <c r="A24" s="37" t="s">
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="E24" s="17">
         <v>45505</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>4399</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E25" s="16">
         <v>45508</v>
@@ -2495,409 +2700,423 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>86</v>
+      <c r="A26" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="10">
         <v>45508</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>88</v>
+      <c r="A27" s="70" t="s">
+        <v>303</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="10">
         <v>45508</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>90</v>
+      <c r="A28" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E28" s="17">
         <v>45508</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
-        <v>93</v>
+      <c r="A29" s="70" t="s">
+        <v>278</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="E29" s="17">
         <v>45508</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>95</v>
+      <c r="A30" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>72</v>
+        <v>37</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="10">
         <v>45511</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
     </row>
     <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>96</v>
+      <c r="A31" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="E31" s="17">
         <v>45511</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
     </row>
     <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
-        <v>98</v>
+      <c r="A32" s="70" t="s">
+        <v>279</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="27">
+        <v>106</v>
+      </c>
+      <c r="E32" s="28">
         <v>45512</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>101</v>
+      <c r="A33" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="27">
+        <v>17</v>
+      </c>
+      <c r="E33" s="28">
         <v>45513</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
     </row>
     <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="31">
+      <c r="A34" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="32">
         <v>45513</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
     </row>
     <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>105</v>
+      <c r="A35" s="70" t="s">
+        <v>294</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="31">
+        <v>50</v>
+      </c>
+      <c r="E35" s="32">
         <v>45514</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
     </row>
     <row r="36" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>107</v>
+      <c r="A36" s="70" t="s">
+        <v>281</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="5">
         <v>45516</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
     </row>
     <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>47</v>
+      <c r="A37" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="E37" s="17">
         <v>45516</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>110</v>
+      <c r="A38" s="70" t="s">
+        <v>291</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="41">
+        <v>22</v>
+      </c>
+      <c r="E38" s="45">
         <v>45518</v>
       </c>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>112</v>
+      <c r="A39" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E39" s="17">
         <v>45518</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="41">
+      <c r="A40" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="45">
         <v>45518</v>
       </c>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="45">
+        <v>45526</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="N41" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
-        <v>116</v>
+      <c r="A42" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>117</v>
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="41">
+        <v>75</v>
+      </c>
+      <c r="E42" s="45">
         <v>45518</v>
       </c>
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="41">
+      <c r="A43" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="45">
         <v>45519</v>
       </c>
       <c r="F43" s="6"/>
@@ -2905,1380 +3124,1527 @@
     </row>
     <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="43"/>
+      <c r="E44" s="46"/>
     </row>
     <row r="45" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
-        <v>120</v>
+      <c r="A45" s="70" t="s">
+        <v>292</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="41">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="45">
         <v>45523</v>
       </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+      <c r="A46" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="45">
+        <v>45525</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" s="45">
+        <v>45527</v>
+      </c>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>123</v>
+      <c r="A48" s="69" t="s">
+        <v>287</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A49" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="41">
+      <c r="A49" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="45">
         <v>45522</v>
       </c>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>125</v>
+      <c r="A50" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="41">
+        <v>27</v>
+      </c>
+      <c r="E50" s="45">
         <v>45523</v>
       </c>
+      <c r="F50" s="19"/>
       <c r="N50" t="str" cm="1">
-        <f t="array" ref="N50">A42:N50</f>
+        <f t="array" aca="1" ref="N50" ca="1">A42:N50</f>
         <v>寒武纪</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>127</v>
+      <c r="A51" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="41">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="45">
         <v>45523</v>
       </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="19"/>
     </row>
     <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A52" s="44" t="s">
-        <v>129</v>
+      <c r="A52" s="48" t="s">
+        <v>133</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="41">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="45">
         <v>45523</v>
       </c>
+      <c r="F52" s="19"/>
     </row>
     <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
-        <v>130</v>
+      <c r="A53" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="41">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="45">
         <v>45523</v>
       </c>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="41">
+        <v>20</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="45">
         <v>45523</v>
       </c>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="24" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D55" s="2"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="41">
+      <c r="A56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="45">
         <v>45523</v>
       </c>
+      <c r="F56" s="19"/>
     </row>
     <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A57" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
+      <c r="A57" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="45">
+        <v>45527</v>
+      </c>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A58" s="62" t="s">
-        <v>273</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="A58" s="69" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="45">
+        <v>45527</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="19"/>
     </row>
     <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="45">
+        <v>45524</v>
+      </c>
+      <c r="F59" s="19"/>
+    </row>
+    <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="45">
+        <v>45527</v>
+      </c>
+      <c r="F60" s="19"/>
+    </row>
+    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="45">
+        <v>45526</v>
+      </c>
+      <c r="F61" s="19"/>
+    </row>
+    <row r="62" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="45">
+        <v>45526</v>
+      </c>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A63" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="41">
-        <v>45524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A60" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-    </row>
-    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="45">
+        <v>45526</v>
+      </c>
+      <c r="F63" s="19"/>
     </row>
     <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
+      <c r="A64" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="A65" s="69" t="s">
+        <v>293</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="45">
+        <v>45527</v>
+      </c>
+      <c r="F65" s="19"/>
     </row>
     <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
+      <c r="A66" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="45">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="74" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="47"/>
-      <c r="P75" s="56"/>
+        <v>12</v>
+      </c>
+      <c r="D75" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="56"/>
+      <c r="P75" s="65"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" s="48" t="s">
-        <v>88</v>
+      <c r="A76" s="57" t="s">
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P76" s="56"/>
+      <c r="P76" s="65"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="49">
+      <c r="A77" s="58">
         <v>4399</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E77" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="I77" s="47"/>
-      <c r="J77" s="28"/>
-      <c r="P77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="I77" s="56"/>
+      <c r="J77" s="29"/>
+      <c r="P77" s="65"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="48" t="s">
-        <v>142</v>
+      <c r="A78" s="57" t="s">
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E78" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47" t="s">
-        <v>144</v>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56" t="s">
+        <v>156</v>
       </c>
       <c r="M78" t="s">
-        <v>145</v>
-      </c>
-      <c r="P78" s="56"/>
+        <v>157</v>
+      </c>
+      <c r="P78" s="65"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="48" t="s">
-        <v>146</v>
+      <c r="A79" s="57" t="s">
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F79" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="P79" s="56"/>
+      <c r="F79" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P79" s="65"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="48" t="s">
-        <v>148</v>
+      <c r="A80" s="57" t="s">
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E80" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="P80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="P80" s="65"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E81" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="P81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="P81" s="65"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E82" s="1">
         <v>8.9</v>
       </c>
-      <c r="F82" s="47"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="P82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="P82" s="65"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="P83" s="56"/>
+        <v>50</v>
+      </c>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="P83" s="65"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="47"/>
-      <c r="J84" s="57"/>
-      <c r="P84" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="F84" s="56"/>
+      <c r="J84" s="66"/>
+      <c r="P84" s="65"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
-      </c>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="J85" s="28"/>
-      <c r="P85" s="56"/>
+        <v>145</v>
+      </c>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="J85" s="29"/>
+      <c r="P85" s="65"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
-      </c>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
+        <v>170</v>
+      </c>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
       <c r="K86" t="s">
-        <v>160</v>
-      </c>
-      <c r="P86" s="56"/>
+        <v>171</v>
+      </c>
+      <c r="P86" s="65"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="46" t="s">
-        <v>23</v>
+        <v>173</v>
+      </c>
+      <c r="D87" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E87" s="1">
         <v>7.13</v>
       </c>
-      <c r="F87" s="47"/>
-      <c r="P87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="P87" s="65"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
-      </c>
-      <c r="P88" s="56"/>
+        <v>12</v>
+      </c>
+      <c r="P88" s="65"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E89" s="1">
         <v>8.9</v>
       </c>
-      <c r="F89" s="28"/>
-      <c r="P89" s="56"/>
+      <c r="F89" s="29"/>
+      <c r="P89" s="65"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E90" s="1">
         <v>8.9</v>
       </c>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="I90" s="47"/>
-      <c r="J90" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="P90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="I90" s="56"/>
+      <c r="J90" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="P90" s="65"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E91" s="1">
         <v>8.9</v>
       </c>
-      <c r="F91" s="28"/>
-      <c r="P91" s="56"/>
+      <c r="F91" s="29"/>
+      <c r="P91" s="65"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" s="46" t="s">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="D92" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E92" s="1">
         <v>8.1</v>
       </c>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="P92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="P92" s="65"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93" s="46" t="s">
-        <v>23</v>
+        <v>181</v>
+      </c>
+      <c r="D93" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E93" s="1">
         <v>7.26</v>
       </c>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="P93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="P93" s="65"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>172</v>
-      </c>
-      <c r="D94" s="46" t="s">
-        <v>23</v>
+        <v>183</v>
+      </c>
+      <c r="D94" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E94" s="1">
         <v>8.11</v>
       </c>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="P94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K94" s="56"/>
+      <c r="L94" s="56"/>
+      <c r="M94" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="P94" s="65"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
-      </c>
-      <c r="D95" s="46" t="s">
-        <v>23</v>
+        <v>164</v>
+      </c>
+      <c r="D95" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E95" s="1">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F95" s="47"/>
-      <c r="P95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="P95" s="65"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>87</v>
-      </c>
-      <c r="D96" s="46" t="s">
-        <v>23</v>
+        <v>94</v>
+      </c>
+      <c r="D96" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E96" s="1">
         <v>8.1199999999999992</v>
       </c>
-      <c r="P96" s="56"/>
+      <c r="P96" s="65"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>162</v>
-      </c>
-      <c r="D97" s="51" t="s">
-        <v>18</v>
+        <v>173</v>
+      </c>
+      <c r="D97" s="60" t="s">
+        <v>17</v>
       </c>
       <c r="E97" s="1">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F97" s="47"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="I97" s="28"/>
-      <c r="P97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="I97" s="29"/>
+      <c r="P97" s="65"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A98" s="48" t="s">
-        <v>177</v>
+      <c r="A98" s="57" t="s">
+        <v>188</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="46" t="s">
-        <v>23</v>
+        <v>189</v>
+      </c>
+      <c r="D98" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E98" s="1">
         <v>8.1199999999999992</v>
       </c>
-      <c r="P98" s="56"/>
+      <c r="P98" s="65"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99" s="46" t="s">
-        <v>23</v>
+        <v>190</v>
+      </c>
+      <c r="D99" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E99" s="1">
         <v>9.17</v>
       </c>
-      <c r="P99" s="56"/>
+      <c r="P99" s="65"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="D100" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E100" s="1">
         <v>8.2100000000000009</v>
       </c>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
-      <c r="K100" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="M100" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="P100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="M100" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="P100" s="65"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>23</v>
+        <v>194</v>
+      </c>
+      <c r="D101" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E101" s="1">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F101" s="28"/>
-      <c r="P101" s="56"/>
+      <c r="F101" s="29"/>
+      <c r="P101" s="65"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
-      </c>
-      <c r="D102" s="46" t="s">
-        <v>23</v>
+        <v>164</v>
+      </c>
+      <c r="D102" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E102" s="1">
         <v>8.26</v>
       </c>
-      <c r="F102" s="47"/>
-      <c r="H102" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="I102" s="28"/>
-      <c r="P102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="H102" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="I102" s="29"/>
+      <c r="P102" s="65"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>186</v>
-      </c>
-      <c r="D103" s="46" t="s">
-        <v>23</v>
+        <v>197</v>
+      </c>
+      <c r="D103" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E103" s="1">
         <v>8.26</v>
       </c>
-      <c r="P103" s="56"/>
+      <c r="P103" s="65"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>188</v>
-      </c>
-      <c r="D104" s="46" t="s">
-        <v>23</v>
+        <v>199</v>
+      </c>
+      <c r="D104" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E104" s="1">
         <v>8.2799999999999994</v>
       </c>
-      <c r="P104" s="56"/>
+      <c r="P104" s="65"/>
     </row>
     <row r="105" spans="1:16" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
-      </c>
-      <c r="D105" s="46" t="s">
-        <v>23</v>
+        <v>201</v>
+      </c>
+      <c r="D105" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E105" s="1">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F105" s="47"/>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="47"/>
-      <c r="K105" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="P105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="62"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="P105" s="65"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D106" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E106" s="1">
         <v>8.2799999999999994</v>
       </c>
-      <c r="P106" s="56"/>
+      <c r="P106" s="65"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="D107" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="54">
+        <v>12</v>
+      </c>
+      <c r="C107" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="63">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="I107" s="47"/>
-      <c r="J107" s="28"/>
-      <c r="P107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="I107" s="56"/>
+      <c r="J107" s="29"/>
+      <c r="P107" s="65"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="D108" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" s="54">
+        <v>12</v>
+      </c>
+      <c r="C108" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D108" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="63">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F108" s="47"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="I108" s="47"/>
-      <c r="J108" s="47"/>
-      <c r="K108" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="P108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="I108" s="56"/>
+      <c r="J108" s="56"/>
+      <c r="K108" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="P108" s="65"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="D109" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E109" s="54">
+        <v>12</v>
+      </c>
+      <c r="C109" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="63">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F109" s="47"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="I109" s="28"/>
-      <c r="J109" s="51"/>
-      <c r="P109" s="56"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="I109" s="29"/>
+      <c r="J109" s="60"/>
+      <c r="P109" s="65"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C110" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E110" s="1">
         <v>8.9</v>
       </c>
-      <c r="P110" s="56"/>
+      <c r="P110" s="65"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>61</v>
-      </c>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="51"/>
-      <c r="J111" s="51"/>
-      <c r="P111" s="56"/>
+        <v>69</v>
+      </c>
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
+      <c r="I111" s="60"/>
+      <c r="J111" s="60"/>
+      <c r="P111" s="65"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A112" s="48" t="s">
-        <v>57</v>
+      <c r="A112" s="57" t="s">
+        <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="D112" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="54">
+        <v>12</v>
+      </c>
+      <c r="C112" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D112" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="63">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F112" s="47"/>
-      <c r="G112" s="53"/>
-      <c r="H112" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="I112" s="47"/>
-      <c r="J112" s="47"/>
-      <c r="K112" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="P112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="I112" s="56"/>
+      <c r="J112" s="56"/>
+      <c r="K112" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="P112" s="65"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="D113" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E113" s="54">
+        <v>12</v>
+      </c>
+      <c r="C113" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="63">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F113" s="47"/>
-      <c r="G113" s="53"/>
-      <c r="H113" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="I113" s="28"/>
-      <c r="J113" s="51"/>
-      <c r="P113" s="56"/>
+      <c r="F113" s="56"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="I113" s="29"/>
+      <c r="J113" s="60"/>
+      <c r="P113" s="65"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" s="54">
+        <v>12</v>
+      </c>
+      <c r="C114" s="60"/>
+      <c r="D114" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="63">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F114" s="28"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-      <c r="J114" s="51"/>
-      <c r="P114" s="56"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="60"/>
+      <c r="J114" s="60"/>
+      <c r="P114" s="65"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="51"/>
-      <c r="D115" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" s="54">
+        <v>12</v>
+      </c>
+      <c r="C115" s="60"/>
+      <c r="D115" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="63">
         <v>9.1</v>
       </c>
-      <c r="F115" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="G115" s="51"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="51"/>
-      <c r="J115" s="51"/>
-      <c r="P115" s="56"/>
+      <c r="F115" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="G115" s="60"/>
+      <c r="H115" s="60"/>
+      <c r="I115" s="60"/>
+      <c r="J115" s="60"/>
+      <c r="P115" s="65"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="D116" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="54">
+        <v>12</v>
+      </c>
+      <c r="C116" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="63">
         <v>9.1</v>
       </c>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
-      <c r="I116" s="47"/>
-      <c r="J116" s="47"/>
-      <c r="K116" s="47"/>
-      <c r="L116" s="47"/>
-      <c r="M116" s="47" t="s">
-        <v>215</v>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
+      <c r="L116" s="56"/>
+      <c r="M116" s="56" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="D117" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E117" s="54">
+        <v>12</v>
+      </c>
+      <c r="C117" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="D117" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" s="63">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F117" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="G117" s="51"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="51"/>
-      <c r="J117" s="51"/>
+      <c r="F117" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="G117" s="60"/>
+      <c r="H117" s="60"/>
+      <c r="I117" s="60"/>
+      <c r="J117" s="60"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="D118" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E118" s="54">
+        <v>12</v>
+      </c>
+      <c r="C118" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="D118" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="63">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F118" s="47"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="28"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56"/>
+      <c r="H118" s="62"/>
+      <c r="I118" s="62"/>
+      <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D119" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119" s="54">
+        <v>12</v>
+      </c>
+      <c r="C119" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="63">
         <v>9.4</v>
       </c>
-      <c r="F119" s="47"/>
-      <c r="G119" s="53"/>
-      <c r="H119" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="I119" s="47"/>
-      <c r="J119" s="28" t="s">
-        <v>220</v>
+      <c r="F119" s="56"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="I119" s="56"/>
+      <c r="J119" s="29" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="D120" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120" s="54">
+        <v>31</v>
+      </c>
+      <c r="C120" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="D120" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="63">
         <v>9.4</v>
       </c>
-      <c r="F120" s="47"/>
-      <c r="G120" s="53"/>
-      <c r="H120" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="I120" s="47"/>
-      <c r="J120" s="28"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="62"/>
+      <c r="H120" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="I120" s="56"/>
+      <c r="J120" s="29"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="D121" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" s="54">
+        <v>12</v>
+      </c>
+      <c r="C121" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D121" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="63">
         <v>9.4</v>
       </c>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="47"/>
-      <c r="J121" s="47"/>
-      <c r="K121" s="47"/>
-      <c r="L121" s="47"/>
-      <c r="M121" s="47" t="s">
-        <v>225</v>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
+      <c r="L121" s="56"/>
+      <c r="M121" s="56" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="D122" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="E122" s="54"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="I122" s="47"/>
-      <c r="J122" s="47"/>
-      <c r="K122" s="47"/>
-      <c r="L122" s="47"/>
-      <c r="M122" s="47" t="s">
-        <v>230</v>
+        <v>37</v>
+      </c>
+      <c r="C122" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D122" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E122" s="63"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="62"/>
+      <c r="H122" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="I122" s="56"/>
+      <c r="J122" s="56"/>
+      <c r="K122" s="56"/>
+      <c r="L122" s="56"/>
+      <c r="M122" s="56" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
-      </c>
-      <c r="C123" s="51"/>
-      <c r="D123" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E123" s="54"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="51"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51"/>
-      <c r="J123" s="51"/>
+        <v>37</v>
+      </c>
+      <c r="C123" s="60"/>
+      <c r="D123" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="63"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="55"/>
-      <c r="D124" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E124" s="54">
+        <v>12</v>
+      </c>
+      <c r="C124" s="64"/>
+      <c r="D124" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="63">
         <v>9.18</v>
       </c>
-      <c r="F124" s="47"/>
-      <c r="G124" s="51"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
-      <c r="J124" s="51"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="60"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D125" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E125" s="54">
+        <v>12</v>
+      </c>
+      <c r="C125" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D125" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="63">
         <v>9.6</v>
       </c>
-      <c r="F125" s="47"/>
-      <c r="G125" s="51"/>
-      <c r="H125" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="I125" s="47"/>
-      <c r="J125" s="28" t="s">
-        <v>207</v>
+      <c r="F125" s="56"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="I125" s="56"/>
+      <c r="J125" s="29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>233</v>
-      </c>
-      <c r="D126" s="46" t="s">
-        <v>23</v>
+        <v>243</v>
+      </c>
+      <c r="D126" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E126" s="1">
         <v>9.4</v>
       </c>
-      <c r="F126" s="28"/>
+      <c r="F126" s="29"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E127" s="1">
         <v>9.6</v>
       </c>
-      <c r="F127" s="28"/>
+      <c r="F127" s="29"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E128" s="1">
         <v>9.4</v>
@@ -4286,84 +4652,84 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>106</v>
-      </c>
-      <c r="D129" s="46" t="s">
-        <v>23</v>
+        <v>111</v>
+      </c>
+      <c r="D129" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E129" s="1">
         <v>9.6</v>
       </c>
-      <c r="F129" s="47"/>
-      <c r="G129" s="58"/>
-      <c r="H129" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="I129" s="28"/>
+      <c r="F129" s="56"/>
+      <c r="G129" s="67"/>
+      <c r="H129" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="I129" s="29"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
-      </c>
-      <c r="D130" s="46" t="s">
-        <v>23</v>
+        <v>249</v>
+      </c>
+      <c r="D130" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E130" s="1">
         <v>9.6</v>
       </c>
-      <c r="F130" s="47"/>
-      <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
-      <c r="I130" s="47"/>
+      <c r="F130" s="56"/>
+      <c r="G130" s="56"/>
+      <c r="H130" s="56"/>
+      <c r="I130" s="56"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>240</v>
-      </c>
-      <c r="D131" s="46" t="s">
-        <v>23</v>
+        <v>250</v>
+      </c>
+      <c r="D131" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E131" s="1">
         <v>9.6</v>
       </c>
-      <c r="F131" s="47"/>
-      <c r="G131" s="58"/>
-      <c r="H131" s="58"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="28" t="s">
-        <v>207</v>
+      <c r="F131" s="56"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
+      <c r="J131" s="29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E132" s="1">
         <v>9.6</v>
@@ -4371,75 +4737,75 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>244</v>
-      </c>
-      <c r="D133" s="46" t="s">
-        <v>23</v>
+        <v>254</v>
+      </c>
+      <c r="D133" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E133" s="1">
         <v>9.6</v>
       </c>
-      <c r="F133" s="47"/>
-      <c r="J133" s="28" t="s">
-        <v>207</v>
+      <c r="F133" s="56"/>
+      <c r="J133" s="29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" s="46" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D135" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E135" s="1">
         <v>9.11</v>
       </c>
-      <c r="F135" s="47"/>
+      <c r="F135" s="56"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>247</v>
-      </c>
-      <c r="D136" s="46" t="s">
-        <v>23</v>
+        <v>257</v>
+      </c>
+      <c r="D136" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E136" s="1">
         <v>9.16</v>
       </c>
-      <c r="F136" s="28"/>
+      <c r="F136" s="29"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>248</v>
-      </c>
-      <c r="D137" s="46" t="s">
-        <v>23</v>
+        <v>258</v>
+      </c>
+      <c r="D137" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E137" s="1">
         <v>9.16</v>
       </c>
-      <c r="F137" s="47"/>
+      <c r="F137" s="56"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E138" s="1">
         <v>9.16</v>
@@ -4447,10 +4813,10 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E139" s="1">
         <v>9.16</v>
@@ -4458,10 +4824,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>251</v>
-      </c>
-      <c r="D140" s="46" t="s">
-        <v>23</v>
+        <v>261</v>
+      </c>
+      <c r="D140" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E140" s="1">
         <v>9.16</v>
@@ -4469,10 +4835,10 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141" s="1">
         <v>9.16</v>
@@ -4480,10 +4846,10 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>253</v>
-      </c>
-      <c r="D142" s="46" t="s">
-        <v>23</v>
+        <v>263</v>
+      </c>
+      <c r="D142" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E142" s="1">
         <v>9.16</v>
@@ -4491,18 +4857,15 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>255</v>
-      </c>
-      <c r="C144" t="s">
-        <v>256</v>
-      </c>
-      <c r="D144" s="46" t="s">
-        <v>23</v>
+        <v>265</v>
+      </c>
+      <c r="D144" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E144" s="1">
         <v>9.18</v>
@@ -4510,75 +4873,77 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E145" s="1">
         <v>9.19</v>
       </c>
-      <c r="F145" s="47"/>
-      <c r="G145" s="53"/>
-      <c r="H145" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="I145" s="47"/>
-      <c r="J145" s="28"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="62"/>
+      <c r="H145" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="I145" s="56"/>
+      <c r="J145" s="29"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>261</v>
-      </c>
-      <c r="D147" s="46" t="s">
-        <v>23</v>
+        <v>270</v>
+      </c>
+      <c r="D147" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F147" s="47"/>
-      <c r="H147" s="47"/>
-      <c r="I147" s="47"/>
-      <c r="J147" s="28"/>
+        <v>269</v>
+      </c>
+      <c r="F147" s="56"/>
+      <c r="H147" s="56"/>
+      <c r="I147" s="56"/>
+      <c r="J147" s="29"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>262</v>
-      </c>
-      <c r="D148" s="46" t="s">
-        <v>23</v>
+        <v>271</v>
+      </c>
+      <c r="D148" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F148" s="47"/>
-      <c r="H148" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="I148" s="47"/>
-      <c r="J148" s="28"/>
+        <v>272</v>
+      </c>
+      <c r="F148" s="56"/>
+      <c r="H148" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="I148" s="56"/>
+      <c r="J148" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D66" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" tooltip="https://hr.tp-link.com.cn/jobDetail/6572" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C14" r:id="rId2" tooltip="https://kwh0jtf778.jobs.feishu.cn/229043/position/6970889531130759461/detail" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C5" r:id="rId3" tooltip="https://jobs.bytedance.com/campus/position/7373519468960008499/detail" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C15" r:id="rId4" location="/campus/position/5355" tooltip="游戏客户端工具开发" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A67" r:id="rId5" location="/jobs" xr:uid="{BC6F17D7-8F91-47A1-948F-F3009F713D50}"/>
+    <hyperlink ref="A68" r:id="rId6" location="/jobs?page=1&amp;anchorName=jobsList" xr:uid="{044DB97C-4D67-4028-9C57-54FC939BC9E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/JOB/牛客笔面试/找工作进展.xlsx
+++ b/JOB/牛客笔面试/找工作进展.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codenotes\JOB\牛客笔面试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7950964-5E20-40C3-A5BF-18932A92EEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ACA6B5-DE98-4A60-A8F6-9F16F3C1881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-5010" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,30 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="326">
   <si>
     <t>公司</t>
   </si>
@@ -322,9 +300,6 @@
     <t>偏算法和app</t>
   </si>
   <si>
-    <t>星宸科技</t>
-  </si>
-  <si>
     <t>IPU 编译工具链软件开发工程师</t>
   </si>
   <si>
@@ -337,9 +312,6 @@
     <t>广州</t>
   </si>
   <si>
-    <t>安路科技</t>
-  </si>
-  <si>
     <t>软件开发</t>
   </si>
   <si>
@@ -367,9 +339,6 @@
     <t>嵌入式工程师1/2</t>
   </si>
   <si>
-    <t>大疆车载</t>
-  </si>
-  <si>
     <t>C++软件开发工程师</t>
   </si>
   <si>
@@ -457,9 +426,6 @@
     <t>基础软件开发/嵌入式开发</t>
   </si>
   <si>
-    <t>三七互娱</t>
-  </si>
-  <si>
     <t>合合信息</t>
   </si>
   <si>
@@ -487,18 +453,12 @@
     <t>万得</t>
   </si>
   <si>
-    <t>海尔</t>
-  </si>
-  <si>
     <t>嵌入式开发1/3</t>
   </si>
   <si>
     <t>青岛</t>
   </si>
   <si>
-    <t>readme</t>
-  </si>
-  <si>
     <t>影像算法/C++开发工程师</t>
   </si>
   <si>
@@ -506,9 +466,6 @@
   </si>
   <si>
     <t>游戏开发工程师1/n</t>
-  </si>
-  <si>
-    <t>momenta</t>
   </si>
   <si>
     <t>吉利</t>
@@ -934,94 +891,94 @@
   </si>
   <si>
     <t>快手</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>禾赛科技</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>科大讯飞</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>亿联网络</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>联云科技</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>新易盛</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>旷世</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>地平线</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>联影</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>荣耀</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>嵌入式软开</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>上海</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>传音控股</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>理想</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>经纬恒润</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>华勤技术</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>驱动开发工程师</t>
   </si>
   <si>
     <t>游卡游戏</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>吉比特</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>联想</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>大疆</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>数禾科技</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>网易雷火</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1043,30 +1000,146 @@
       </rPr>
       <t>2/2</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/baai/42174?recommendCode=DS6B4ejS#/jobs</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/sunnyoptical/45602?recommendCode=DSEsAgxs#/jobs?page=1&amp;anchorName=jobsList</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://shuhegroup1.zhiye.com/campus/jobs</t>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>后端开发</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>影石创新科技</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>搜狐畅游</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式工程师 1个月</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>三七互娱</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银网络科技</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>星宸科技</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>大疆车载</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>安路科技</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCL</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>舜宇光学</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京智源人工智能</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>数禾信息科技</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据和java</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>英维克</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个嵌入式</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>格蓝若智能</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>软开2/3</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣旺达</t>
+  </si>
+  <si>
+    <t>嵌入式 java</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>九号</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>助理</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>readme</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>途游游戏</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE5</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>momenta</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统研发工程师（C++</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>网龙</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>中望</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++开发</t>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1213,12 +1286,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF33383D"/>
-      <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color rgb="FF141414"/>
       <name val="楷体"/>
       <charset val="134"/>
@@ -1259,14 +1326,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1335,8 +1394,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF33383D"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,6 +1471,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1407,15 +1487,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1527,22 +1604,19 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1557,12 +1631,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1572,10 +1640,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1599,7 +1667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1608,43 +1676,66 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1917,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y148"/>
+  <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1969,14 +2060,14 @@
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="69" t="s">
-        <v>295</v>
+      <c r="P1" s="66" t="s">
+        <v>288</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>12</v>
@@ -1988,9 +2079,9 @@
       <c r="T1" s="17"/>
       <c r="U1" s="2"/>
       <c r="V1" s="34"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2017,22 +2108,22 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="34"/>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="47" t="s">
         <v>18</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="47" t="s">
         <v>19</v>
       </c>
       <c r="S2" s="2"/>
-      <c r="T2" s="45"/>
+      <c r="T2" s="44"/>
       <c r="U2" s="2"/>
       <c r="V2" s="34"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
     </row>
     <row r="3" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -2059,7 +2150,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="34"/>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="47" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -2068,7 +2159,7 @@
       <c r="R3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="46"/>
+      <c r="T3" s="45"/>
     </row>
     <row r="4" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -2097,11 +2188,13 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="34"/>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="50" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="47" t="s">
         <v>30</v>
       </c>
       <c r="T4" s="1"/>
@@ -2133,11 +2226,13 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="34"/>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="50" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2169,7 +2264,10 @@
       <c r="P6" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="Q6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="47" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2193,11 +2291,14 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="51"/>
-      <c r="P7" s="52" t="s">
+      <c r="N7" s="48"/>
+      <c r="P7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="54" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="51" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2225,11 +2326,14 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="51"/>
+      <c r="N8" s="48"/>
       <c r="P8" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="54" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="51" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2257,11 +2361,14 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="51"/>
-      <c r="P9" s="53" t="s">
+      <c r="N9" s="48"/>
+      <c r="P9" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="54" t="s">
+      <c r="Q9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="51" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2289,11 +2396,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="51"/>
-      <c r="P10" s="52" t="s">
+      <c r="N10" s="48"/>
+      <c r="P10" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="54" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2321,11 +2431,14 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="51"/>
-      <c r="P11" s="53" t="s">
+      <c r="N11" s="48"/>
+      <c r="P11" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="Q11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="51" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2353,7 +2466,13 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="51"/>
+      <c r="N12" s="48"/>
+      <c r="P12" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -2379,11 +2498,20 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="51"/>
+      <c r="N13" s="48"/>
+      <c r="P13" s="78" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="79" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
-        <v>275</v>
+      <c r="A14" s="66" t="s">
+        <v>268</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
@@ -2405,7 +2533,16 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="51"/>
+      <c r="N14" s="48"/>
+      <c r="P14" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="78" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -2433,8 +2570,17 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="51" t="s">
+      <c r="N15" s="48" t="s">
         <v>68</v>
+      </c>
+      <c r="P15" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="78" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="21" x14ac:dyDescent="0.3">
@@ -2461,8 +2607,17 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="51" t="s">
+      <c r="N16" s="48" t="s">
         <v>70</v>
+      </c>
+      <c r="P16" s="78" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="78" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.3">
@@ -2484,16 +2639,16 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="51"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
-        <v>276</v>
+      <c r="A18" s="67" t="s">
+        <v>269</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -2515,7 +2670,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="51" t="s">
+      <c r="N18" s="48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2526,8 +2681,8 @@
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="69" t="s">
-        <v>301</v>
+      <c r="C19" s="66" t="s">
+        <v>291</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
@@ -2541,11 +2696,11 @@
       <c r="K19" s="2"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="51"/>
+      <c r="N19" s="48"/>
     </row>
     <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
-        <v>277</v>
+      <c r="A20" s="67" t="s">
+        <v>270</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>37</v>
@@ -2567,7 +2722,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="51"/>
+      <c r="N20" s="48"/>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
@@ -2595,7 +2750,7 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="51" t="s">
+      <c r="N21" s="48" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2654,17 +2809,17 @@
       <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="38" t="s">
+      <c r="D24" s="37" t="s">
         <v>89</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>90</v>
       </c>
       <c r="E24" s="17">
         <v>45505</v>
@@ -2687,10 +2842,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E25" s="16">
         <v>45508</v>
@@ -2706,14 +2861,14 @@
       <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>93</v>
+      <c r="A26" s="67" t="s">
+        <v>299</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>17</v>
@@ -2732,14 +2887,14 @@
       <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="70" t="s">
-        <v>303</v>
+      <c r="A27" s="67" t="s">
+        <v>293</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="10">
@@ -2757,16 +2912,16 @@
     </row>
     <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E28" s="17">
         <v>45508</v>
@@ -2782,14 +2937,14 @@
       <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
-        <v>278</v>
+      <c r="A29" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>22</v>
@@ -2808,14 +2963,14 @@
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
-        <v>101</v>
+      <c r="A30" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="40" t="s">
-        <v>102</v>
+      <c r="C30" s="39" t="s">
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>27</v>
@@ -2834,14 +2989,14 @@
       <c r="N30" s="34"/>
     </row>
     <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>103</v>
+      <c r="A31" s="67" t="s">
+        <v>298</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>104</v>
+      <c r="C31" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>50</v>
@@ -2860,17 +3015,17 @@
       <c r="N31" s="34"/>
     </row>
     <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="70" t="s">
-        <v>279</v>
+      <c r="A32" s="67" t="s">
+        <v>272</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E32" s="28">
         <v>45512</v>
@@ -2887,13 +3042,13 @@
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>17</v>
@@ -2912,16 +3067,16 @@
       <c r="N33" s="34"/>
     </row>
     <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="41" t="s">
+      <c r="A34" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="32">
@@ -2938,14 +3093,14 @@
       <c r="N34" s="34"/>
     </row>
     <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="70" t="s">
-        <v>294</v>
+      <c r="A35" s="67" t="s">
+        <v>287</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>50</v>
@@ -2964,14 +3119,14 @@
       <c r="N35" s="34"/>
     </row>
     <row r="36" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="70" t="s">
-        <v>281</v>
+      <c r="A36" s="67" t="s">
+        <v>274</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>22</v>
@@ -2981,54 +3136,54 @@
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="34"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
     </row>
     <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="71" t="s">
-        <v>302</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="41" t="s">
+      <c r="A37" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="40" t="s">
         <v>50</v>
       </c>
       <c r="E37" s="17">
         <v>45516</v>
       </c>
       <c r="F37" s="19"/>
-      <c r="G37" s="44"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="70" t="s">
-        <v>291</v>
+      <c r="A38" s="67" t="s">
+        <v>284</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="44">
         <v>45518</v>
       </c>
       <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>115</v>
+      <c r="A39" s="67" t="s">
+        <v>300</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
@@ -3037,7 +3192,7 @@
         <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E39" s="17">
         <v>45518</v>
@@ -3047,28 +3202,28 @@
       <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="41" t="s">
+      <c r="A40" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="44">
         <v>45518</v>
       </c>
-      <c r="F40" s="19"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3077,46 +3232,46 @@
       <c r="D41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="44">
         <v>45526</v>
       </c>
       <c r="F41" s="19"/>
       <c r="N41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="44">
         <v>45518</v>
       </c>
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="71" t="s">
-        <v>282</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="41" t="s">
+      <c r="A43" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="44">
         <v>45519</v>
       </c>
       <c r="F43" s="6"/>
@@ -3124,46 +3279,46 @@
     </row>
     <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="46"/>
+      <c r="E44" s="45"/>
     </row>
     <row r="45" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="70" t="s">
-        <v>292</v>
+      <c r="A45" s="67" t="s">
+        <v>285</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="44">
         <v>45523</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A46" s="47" t="s">
-        <v>14</v>
+      <c r="A46" s="68" t="s">
+        <v>302</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="40" t="s">
+      <c r="C46" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="44">
         <v>45525</v>
       </c>
       <c r="F46" s="6"/>
@@ -3171,95 +3326,91 @@
       <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="69" t="s">
-        <v>283</v>
+      <c r="A47" s="76" t="s">
+        <v>276</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="69" t="s">
-        <v>284</v>
-      </c>
-      <c r="D47" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="E47" s="45">
+      <c r="C47" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="E47" s="44">
         <v>45527</v>
       </c>
       <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="69" t="s">
-        <v>287</v>
+      <c r="A48" s="66" t="s">
+        <v>280</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="41" t="s">
+    <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A49" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E49" s="44">
         <v>45522</v>
       </c>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="45">
+      <c r="E50" s="44">
         <v>45523</v>
       </c>
       <c r="F50" s="19"/>
-      <c r="N50" t="str" cm="1">
-        <f t="array" aca="1" ref="N50" ca="1">A42:N50</f>
-        <v>寒武纪</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="45">
+      <c r="E51" s="44">
         <v>45523</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="19"/>
     </row>
-    <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A52" s="48" t="s">
-        <v>133</v>
+    <row r="52" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="72" t="s">
+        <v>295</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>12</v>
@@ -3267,84 +3418,85 @@
       <c r="C52" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="45">
+      <c r="D52" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="44">
         <v>45523</v>
       </c>
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="F52" s="6"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="45">
+      <c r="E53" s="44">
         <v>45523</v>
       </c>
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" s="41" t="s">
+      <c r="C54" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E54" s="44">
         <v>45523</v>
       </c>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>137</v>
+    <row r="55" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A55" s="74" t="s">
+        <v>133</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D55" s="2"/>
       <c r="F55" s="19"/>
     </row>
-    <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>139</v>
+    <row r="56" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="74" t="s">
+        <v>135</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="45">
+        <v>137</v>
+      </c>
+      <c r="E56" s="44">
         <v>45523</v>
       </c>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A57" s="68" t="s">
-        <v>288</v>
+    <row r="57" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A57" s="75" t="s">
+        <v>281</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>12</v>
@@ -3355,34 +3507,34 @@
       <c r="D57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E57" s="44">
         <v>45527</v>
       </c>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A58" s="69" t="s">
-        <v>289</v>
+    <row r="58" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="76" t="s">
+        <v>282</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="72" t="s">
-        <v>290</v>
+      <c r="C58" s="69" t="s">
+        <v>283</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="45">
+      <c r="E58" s="44">
         <v>45527</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="19"/>
     </row>
-    <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
-        <v>142</v>
+    <row r="59" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A59" s="77" t="s">
+        <v>138</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>12</v>
@@ -3393,14 +3545,14 @@
       <c r="D59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="44">
         <v>45524</v>
       </c>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A60" s="68" t="s">
-        <v>286</v>
+    <row r="60" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="75" t="s">
+        <v>279</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>12</v>
@@ -3411,75 +3563,85 @@
       <c r="D60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="45">
+      <c r="E60" s="44">
         <v>45527</v>
       </c>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
+    <row r="61" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A61" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="44">
+        <v>45526</v>
+      </c>
+      <c r="F61" s="19"/>
+    </row>
+    <row r="62" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="44">
+        <v>45526</v>
+      </c>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A63" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="39" t="s">
         <v>143</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" s="45">
-        <v>45526</v>
-      </c>
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="45">
-        <v>45526</v>
-      </c>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A63" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="40" t="s">
-        <v>149</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="45">
+      <c r="E63" s="44">
         <v>45526</v>
       </c>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="D64" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E64" s="44">
+        <v>45530</v>
+      </c>
     </row>
     <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A65" s="69" t="s">
-        <v>293</v>
+      <c r="A65" s="76" t="s">
+        <v>286</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>12</v>
@@ -3487,1463 +3649,1606 @@
       <c r="C65" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="45">
+      <c r="E65" s="44">
         <v>45527</v>
       </c>
       <c r="F65" s="19"/>
     </row>
     <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A66" s="68" t="s">
-        <v>296</v>
+      <c r="A66" s="75" t="s">
+        <v>289</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="73" t="s">
-        <v>297</v>
+      <c r="C66" s="70" t="s">
+        <v>290</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="45">
+      <c r="E66" s="44">
         <v>45527</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="74" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" s="74" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>300</v>
-      </c>
+    <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="A67" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" s="44">
+        <v>45530</v>
+      </c>
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E68" s="44">
+        <v>45530</v>
+      </c>
+      <c r="F68" s="20"/>
+    </row>
+    <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="A69" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" s="44">
+        <v>45530</v>
+      </c>
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="A71" s="78" t="s">
+        <v>324</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E71" s="44">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="D73" s="2"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="56"/>
-      <c r="P75" s="65"/>
+      <c r="P75" s="62"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="P76" s="65"/>
+      <c r="P76" s="62"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="58">
-        <v>4399</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" t="s">
-        <v>92</v>
-      </c>
-      <c r="E77" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="I77" s="56"/>
-      <c r="J77" s="29"/>
-      <c r="P77" s="65"/>
+      <c r="P77" s="62"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="M78" t="s">
-        <v>157</v>
-      </c>
-      <c r="P78" s="65"/>
+      <c r="P78" s="62"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="P79" s="65"/>
+      <c r="P79" s="62"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" t="s">
-        <v>161</v>
-      </c>
-      <c r="D80" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="P80" s="65"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" t="s">
-        <v>50</v>
-      </c>
-      <c r="E81" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="P81" s="65"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" t="s">
-        <v>165</v>
-      </c>
-      <c r="E82" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="F82" s="56"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="P82" s="65"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="P83" s="65"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" t="s">
-        <v>167</v>
-      </c>
-      <c r="D84" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="56"/>
-      <c r="J84" s="66"/>
-      <c r="P84" s="65"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" t="s">
-        <v>145</v>
-      </c>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="J85" s="29"/>
-      <c r="P85" s="65"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" t="s">
-        <v>170</v>
-      </c>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" t="s">
-        <v>171</v>
-      </c>
-      <c r="P86" s="65"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="1">
-        <v>7.13</v>
-      </c>
-      <c r="F87" s="56"/>
-      <c r="P87" s="65"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P88" s="65"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>134</v>
-      </c>
-      <c r="C89" t="s">
-        <v>175</v>
-      </c>
-      <c r="E89" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="F89" s="29"/>
-      <c r="P89" s="65"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" t="s">
-        <v>176</v>
-      </c>
-      <c r="D90" t="s">
-        <v>50</v>
-      </c>
-      <c r="E90" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="I90" s="56"/>
-      <c r="J90" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="P90" s="65"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" t="s">
-        <v>37</v>
-      </c>
-      <c r="C91" t="s">
-        <v>179</v>
-      </c>
-      <c r="E91" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="F91" s="29"/>
-      <c r="P91" s="65"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="P92" s="65"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>180</v>
-      </c>
-      <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" s="1">
-        <v>7.26</v>
-      </c>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="P93" s="65"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>182</v>
-      </c>
-      <c r="B94" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" t="s">
-        <v>183</v>
-      </c>
-      <c r="D94" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" s="1">
-        <v>8.11</v>
-      </c>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="K94" s="56"/>
-      <c r="L94" s="56"/>
-      <c r="M94" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="P94" s="65"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>151</v>
-      </c>
-      <c r="B95" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" t="s">
-        <v>164</v>
-      </c>
-      <c r="D95" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" s="1">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="F95" s="56"/>
-      <c r="P95" s="65"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>174</v>
-      </c>
-      <c r="B96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" t="s">
-        <v>94</v>
-      </c>
-      <c r="D96" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" s="1">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="P96" s="65"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>186</v>
-      </c>
-      <c r="B97" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" t="s">
-        <v>173</v>
-      </c>
-      <c r="D97" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="1">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="F97" s="56"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="I97" s="29"/>
-      <c r="P97" s="65"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A98" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="B98" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E98" s="1">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="P98" s="65"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>190</v>
-      </c>
-      <c r="D99" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E99" s="1">
-        <v>9.17</v>
-      </c>
-      <c r="P99" s="65"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>191</v>
-      </c>
-      <c r="B100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" t="s">
-        <v>192</v>
-      </c>
-      <c r="D100" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100" s="1">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
-      <c r="K100" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="M100" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="P100" s="65"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" t="s">
-        <v>194</v>
-      </c>
-      <c r="D101" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="1">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="F101" s="29"/>
-      <c r="P101" s="65"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>195</v>
-      </c>
-      <c r="B102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E102" s="1">
-        <v>8.26</v>
-      </c>
-      <c r="F102" s="56"/>
-      <c r="H102" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="I102" s="29"/>
-      <c r="P102" s="65"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>196</v>
-      </c>
-      <c r="B103" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" t="s">
-        <v>197</v>
-      </c>
-      <c r="D103" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E103" s="1">
-        <v>8.26</v>
-      </c>
-      <c r="P103" s="65"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>198</v>
-      </c>
-      <c r="B104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" t="s">
-        <v>199</v>
-      </c>
-      <c r="D104" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="1">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="P104" s="65"/>
-    </row>
-    <row r="105" spans="1:16" ht="18.5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>200</v>
-      </c>
-      <c r="B105" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" t="s">
-        <v>201</v>
-      </c>
-      <c r="D105" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E105" s="1">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="F105" s="56"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="P105" s="65"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>203</v>
-      </c>
-      <c r="B106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" t="s">
-        <v>204</v>
-      </c>
-      <c r="D106" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="P106" s="65"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>205</v>
-      </c>
-      <c r="B107" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="D107" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="63">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="I107" s="56"/>
-      <c r="J107" s="29"/>
-      <c r="P107" s="65"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>207</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="D108" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" s="63">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="F108" s="56"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="P108" s="65"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>211</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="D109" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E109" s="63">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F109" s="56"/>
-      <c r="G109" s="60"/>
-      <c r="H109" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="I109" s="29"/>
-      <c r="J109" s="60"/>
-      <c r="P109" s="65"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>214</v>
-      </c>
-      <c r="C110" t="s">
-        <v>215</v>
-      </c>
-      <c r="E110" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="P110" s="65"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="60"/>
-      <c r="H111" s="60"/>
-      <c r="I111" s="60"/>
-      <c r="J111" s="60"/>
-      <c r="P111" s="65"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A112" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="D112" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="63">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F112" s="56"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="I112" s="56"/>
-      <c r="J112" s="56"/>
-      <c r="K112" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="P112" s="65"/>
+      <c r="P80" s="62"/>
+    </row>
+    <row r="81" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P81" s="62"/>
+    </row>
+    <row r="82" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P82" s="62"/>
+    </row>
+    <row r="83" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P83" s="62"/>
+    </row>
+    <row r="84" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P84" s="62"/>
+    </row>
+    <row r="85" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P85" s="62"/>
+    </row>
+    <row r="86" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P86" s="62"/>
+    </row>
+    <row r="87" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P87" s="62"/>
+    </row>
+    <row r="88" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P88" s="62"/>
+    </row>
+    <row r="89" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P89" s="62"/>
+    </row>
+    <row r="90" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P90" s="62"/>
+    </row>
+    <row r="91" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P91" s="62"/>
+    </row>
+    <row r="92" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P92" s="62"/>
+    </row>
+    <row r="93" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P93" s="62"/>
+    </row>
+    <row r="94" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P94" s="62"/>
+    </row>
+    <row r="95" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P95" s="62"/>
+    </row>
+    <row r="96" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P96" s="62"/>
+    </row>
+    <row r="97" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P97" s="62"/>
+    </row>
+    <row r="98" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P98" s="62"/>
+    </row>
+    <row r="99" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P99" s="62"/>
+    </row>
+    <row r="100" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P100" s="62"/>
+    </row>
+    <row r="101" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P101" s="62"/>
+    </row>
+    <row r="102" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P102" s="62"/>
+    </row>
+    <row r="103" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P103" s="62"/>
+    </row>
+    <row r="104" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P104" s="62"/>
+    </row>
+    <row r="105" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P105" s="62"/>
+    </row>
+    <row r="106" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P106" s="62"/>
+    </row>
+    <row r="107" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P107" s="62"/>
+    </row>
+    <row r="108" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P108" s="62"/>
+    </row>
+    <row r="109" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P109" s="62"/>
+    </row>
+    <row r="110" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P110" s="62"/>
+    </row>
+    <row r="111" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P111" s="62"/>
+    </row>
+    <row r="112" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P112" s="62"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>219</v>
-      </c>
-      <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D113" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E113" s="63">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F113" s="56"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="I113" s="29"/>
-      <c r="J113" s="60"/>
-      <c r="P113" s="65"/>
+      <c r="P113" s="62"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" s="63">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F114" s="29"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="60"/>
-      <c r="J114" s="60"/>
-      <c r="P114" s="65"/>
+      <c r="P114" s="62"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s">
         <v>12</v>
       </c>
-      <c r="C115" s="60"/>
-      <c r="D115" s="55" t="s">
+      <c r="D115" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E115" s="63">
-        <v>9.1</v>
-      </c>
-      <c r="F115" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="G115" s="60"/>
-      <c r="H115" s="60"/>
-      <c r="I115" s="60"/>
-      <c r="J115" s="60"/>
-      <c r="P115" s="65"/>
+      <c r="F115" s="53"/>
+      <c r="P115" s="62"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>224</v>
+      <c r="A116" s="54" t="s">
+        <v>93</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="D116" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" s="55">
+        <v>4399</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>90</v>
+      </c>
+      <c r="D117" t="s">
+        <v>91</v>
+      </c>
+      <c r="E117" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="I117" s="53"/>
+      <c r="J117" s="29"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>148</v>
+      </c>
+      <c r="D118" t="s">
+        <v>91</v>
+      </c>
+      <c r="E118" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F118" s="53"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="53"/>
+      <c r="I118" s="53"/>
+      <c r="J118" s="53"/>
+      <c r="K118" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="M118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>152</v>
+      </c>
+      <c r="D119" t="s">
         <v>17</v>
       </c>
-      <c r="E116" s="63">
-        <v>9.1</v>
-      </c>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="56"/>
-      <c r="L116" s="56"/>
-      <c r="M116" s="56" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>53</v>
-      </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="D117" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" s="63">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F117" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="G117" s="60"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="60"/>
-      <c r="J117" s="60"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>229</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="D118" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" s="63">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F118" s="56"/>
-      <c r="G118" s="56"/>
-      <c r="H118" s="62"/>
-      <c r="I118" s="62"/>
-      <c r="J118" s="29"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>148</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="D119" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E119" s="63">
-        <v>9.4</v>
-      </c>
-      <c r="F119" s="56"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="56" t="s">
+      <c r="E119" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="I119" s="56"/>
-      <c r="J119" s="29" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>31</v>
-      </c>
-      <c r="C120" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="D120" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120" s="63">
-        <v>9.4</v>
-      </c>
-      <c r="F120" s="56"/>
-      <c r="G120" s="62"/>
-      <c r="H120" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="I120" s="56"/>
-      <c r="J120" s="29"/>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="D121" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E121" s="63">
-        <v>9.4</v>
-      </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
-      <c r="L121" s="56"/>
-      <c r="M121" s="56" t="s">
-        <v>235</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C121" t="s">
+        <v>155</v>
+      </c>
+      <c r="D121" t="s">
+        <v>50</v>
+      </c>
+      <c r="E121" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F121" s="53"/>
+      <c r="G121" s="53"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="B122" t="s">
         <v>37</v>
       </c>
-      <c r="C122" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="D122" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="E122" s="63"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="I122" s="56"/>
-      <c r="J122" s="56"/>
-      <c r="K122" s="56"/>
-      <c r="L122" s="56"/>
-      <c r="M122" s="56" t="s">
-        <v>240</v>
-      </c>
+      <c r="C122" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="F122" s="53"/>
+      <c r="G122" s="56"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
-      </c>
-      <c r="C123" s="60"/>
-      <c r="D123" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="E123" s="63"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>50</v>
+      </c>
+      <c r="F123" s="53"/>
+      <c r="G123" s="53"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="64"/>
-      <c r="D124" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E124" s="63">
-        <v>9.18</v>
-      </c>
-      <c r="F124" s="56"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="29"/>
-      <c r="J124" s="60"/>
+        <v>37</v>
+      </c>
+      <c r="C124" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="53"/>
+      <c r="J124" s="63"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D125" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="63">
-        <v>9.6</v>
-      </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="I125" s="56"/>
-      <c r="J125" s="29" t="s">
-        <v>218</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D125" t="s">
+        <v>140</v>
+      </c>
+      <c r="F125" s="53"/>
+      <c r="G125" s="53"/>
+      <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>243</v>
-      </c>
-      <c r="D126" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E126" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="F126" s="29"/>
+        <v>37</v>
+      </c>
+      <c r="D126" t="s">
+        <v>163</v>
+      </c>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C127" t="s">
-        <v>96</v>
-      </c>
-      <c r="D127" t="s">
-        <v>17</v>
+        <v>166</v>
+      </c>
+      <c r="D127" s="52" t="s">
+        <v>22</v>
       </c>
       <c r="E127" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="F127" s="29"/>
+        <v>7.13</v>
+      </c>
+      <c r="F127" s="53"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="s">
+        <v>168</v>
+      </c>
+      <c r="E129" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="F129" s="29"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" t="s">
+        <v>169</v>
+      </c>
+      <c r="D130" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="F130" s="53"/>
+      <c r="G130" s="53"/>
+      <c r="H130" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="I130" s="53"/>
+      <c r="J130" s="52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131" t="s">
+        <v>172</v>
+      </c>
+      <c r="E131" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="F131" s="29"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>78</v>
+      </c>
+      <c r="D132" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" t="s">
+        <v>37</v>
+      </c>
+      <c r="C133" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="F133" s="53"/>
+      <c r="G133" s="53"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="F134" s="53"/>
+      <c r="G134" s="53"/>
+      <c r="H134" s="53"/>
+      <c r="I134" s="53"/>
+      <c r="J134" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K134" s="53"/>
+      <c r="L134" s="53"/>
+      <c r="M134" s="53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>157</v>
+      </c>
+      <c r="D135" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F135" s="53"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>167</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>92</v>
+      </c>
+      <c r="D136" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>179</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>166</v>
+      </c>
+      <c r="D137" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F137" s="53"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="I137" s="29"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B138" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138" t="s">
+        <v>182</v>
+      </c>
+      <c r="D138" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>183</v>
+      </c>
+      <c r="D139" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="1">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>184</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>185</v>
+      </c>
+      <c r="D140" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F140" s="53"/>
+      <c r="G140" s="53"/>
+      <c r="H140" s="53"/>
+      <c r="I140" s="53"/>
+      <c r="J140" s="53"/>
+      <c r="K140" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="M140" s="53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>109</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>187</v>
+      </c>
+      <c r="D141" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="F141" s="29"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>188</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>157</v>
+      </c>
+      <c r="D142" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" s="1">
+        <v>8.26</v>
+      </c>
+      <c r="F142" s="53"/>
+      <c r="H142" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I142" s="29"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>190</v>
+      </c>
+      <c r="D143" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" s="1">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>191</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>192</v>
+      </c>
+      <c r="D144" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>193</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>194</v>
+      </c>
+      <c r="D145" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F145" s="53"/>
+      <c r="G145" s="59"/>
+      <c r="H145" s="59"/>
+      <c r="I145" s="59"/>
+      <c r="J145" s="53"/>
+      <c r="K145" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>196</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>197</v>
+      </c>
+      <c r="D146" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>198</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="D147" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="60">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F147" s="53"/>
+      <c r="G147" s="53"/>
+      <c r="H147" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="I147" s="53"/>
+      <c r="J147" s="29"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D148" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" s="60">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F148" s="53"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="I148" s="53"/>
+      <c r="J148" s="53"/>
+      <c r="K148" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>204</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D149" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" s="60">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F149" s="53"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I149" s="29"/>
+      <c r="J149" s="57"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>207</v>
+      </c>
+      <c r="C150" t="s">
+        <v>208</v>
+      </c>
+      <c r="E150" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>69</v>
+      </c>
+      <c r="C151" s="57"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="57"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="57"/>
+      <c r="J151" s="57"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D152" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="60">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F152" s="53"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="I152" s="53"/>
+      <c r="J152" s="53"/>
+      <c r="K152" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>212</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="D153" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="60">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F153" s="53"/>
+      <c r="G153" s="59"/>
+      <c r="H153" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="I153" s="29"/>
+      <c r="J153" s="57"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="57"/>
+      <c r="D154" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="60">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F154" s="29"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>215</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="57"/>
+      <c r="D155" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="60">
+        <v>9.1</v>
+      </c>
+      <c r="F155" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="G155" s="57"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="57"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>217</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D156" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="60">
+        <v>9.1</v>
+      </c>
+      <c r="F156" s="53"/>
+      <c r="G156" s="53"/>
+      <c r="H156" s="53"/>
+      <c r="I156" s="53"/>
+      <c r="J156" s="53"/>
+      <c r="K156" s="53"/>
+      <c r="L156" s="53"/>
+      <c r="M156" s="53" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>53</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D157" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" s="60">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F157" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="G157" s="57"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="57"/>
+      <c r="J157" s="57"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>222</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D158" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="60">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F158" s="53"/>
+      <c r="G158" s="53"/>
+      <c r="H158" s="59"/>
+      <c r="I158" s="59"/>
+      <c r="J158" s="29"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>142</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" s="60">
+        <v>9.4</v>
+      </c>
+      <c r="F159" s="53"/>
+      <c r="G159" s="59"/>
+      <c r="H159" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="I159" s="53"/>
+      <c r="J159" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D160" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160" s="60">
+        <v>9.4</v>
+      </c>
+      <c r="F160" s="53"/>
+      <c r="G160" s="59"/>
+      <c r="H160" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="I160" s="53"/>
+      <c r="J160" s="29"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>226</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D161" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" s="60">
+        <v>9.4</v>
+      </c>
+      <c r="F161" s="53"/>
+      <c r="G161" s="53"/>
+      <c r="H161" s="53"/>
+      <c r="I161" s="53"/>
+      <c r="J161" s="53"/>
+      <c r="K161" s="53"/>
+      <c r="L161" s="53"/>
+      <c r="M161" s="53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>229</v>
+      </c>
+      <c r="B162" t="s">
+        <v>37</v>
+      </c>
+      <c r="C162" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="D162" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E162" s="60"/>
+      <c r="F162" s="53"/>
+      <c r="G162" s="59"/>
+      <c r="H162" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="I162" s="53"/>
+      <c r="J162" s="53"/>
+      <c r="K162" s="53"/>
+      <c r="L162" s="53"/>
+      <c r="M162" s="53" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>62</v>
+      </c>
+      <c r="B163" t="s">
+        <v>37</v>
+      </c>
+      <c r="C163" s="57"/>
+      <c r="D163" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E163" s="60"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="57"/>
+      <c r="H163" s="57"/>
+      <c r="I163" s="57"/>
+      <c r="J163" s="57"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="61"/>
+      <c r="D164" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164" s="60">
+        <v>9.18</v>
+      </c>
+      <c r="F164" s="53"/>
+      <c r="G164" s="57"/>
+      <c r="H164" s="29"/>
+      <c r="I164" s="29"/>
+      <c r="J164" s="57"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>234</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D165" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" s="60">
+        <v>9.6</v>
+      </c>
+      <c r="F165" s="53"/>
+      <c r="G165" s="57"/>
+      <c r="H165" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="I165" s="53"/>
+      <c r="J165" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>235</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>236</v>
+      </c>
+      <c r="D166" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="F166" s="29"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>237</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>94</v>
+      </c>
+      <c r="D167" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="F167" s="29"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>238</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>239</v>
+      </c>
+      <c r="D168" t="s">
+        <v>27</v>
+      </c>
+      <c r="E168" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>240</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>108</v>
+      </c>
+      <c r="D169" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="F169" s="53"/>
+      <c r="G169" s="64"/>
+      <c r="H169" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="I169" s="29"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>241</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>242</v>
+      </c>
+      <c r="D170" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="F170" s="53"/>
+      <c r="G170" s="53"/>
+      <c r="H170" s="53"/>
+      <c r="I170" s="53"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>124</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>243</v>
+      </c>
+      <c r="D171" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="F171" s="53"/>
+      <c r="G171" s="64"/>
+      <c r="H171" s="64"/>
+      <c r="I171" s="64"/>
+      <c r="J171" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>244</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
         <v>245</v>
       </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="D172" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>246</v>
       </c>
-      <c r="D128" t="s">
-        <v>27</v>
-      </c>
-      <c r="E128" s="1">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
         <v>247</v>
       </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" t="s">
-        <v>111</v>
-      </c>
-      <c r="D129" s="55" t="s">
+      <c r="D173" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E173" s="1">
         <v>9.6</v>
       </c>
-      <c r="F129" s="56"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="I129" s="29"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="F173" s="53"/>
+      <c r="J173" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>248</v>
       </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>249</v>
       </c>
-      <c r="D130" s="55" t="s">
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E130" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="F130" s="56"/>
-      <c r="G130" s="56"/>
-      <c r="H130" s="56"/>
-      <c r="I130" s="56"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>127</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="E175" s="1">
+        <v>9.11</v>
+      </c>
+      <c r="F175" s="53"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="55" t="s">
+      <c r="D176" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E131" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="F131" s="56"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="E176" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="F176" s="29"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>251</v>
       </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="D177" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="F177" s="53"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>252</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D178" t="s">
         <v>17</v>
       </c>
-      <c r="E132" s="1">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="E178" s="1">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>253</v>
       </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="D179" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="1">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>254</v>
       </c>
-      <c r="D133" s="55" t="s">
+      <c r="D180" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E133" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="F133" s="56"/>
-      <c r="J133" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="E180" s="1">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="D181" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" s="1">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>256</v>
       </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="55" t="s">
+      <c r="D182" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E135" s="1">
-        <v>9.11</v>
-      </c>
-      <c r="F135" s="56"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="E182" s="1">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>257</v>
       </c>
-      <c r="D136" s="55" t="s">
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>258</v>
+      </c>
+      <c r="D184" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E136" s="1">
-        <v>9.16</v>
-      </c>
-      <c r="F136" s="29"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>258</v>
-      </c>
-      <c r="D137" s="55" t="s">
+      <c r="E184" s="1">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>259</v>
+      </c>
+      <c r="D185" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" s="1">
+        <v>9.19</v>
+      </c>
+      <c r="F185" s="53"/>
+      <c r="G185" s="59"/>
+      <c r="H185" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="I185" s="53"/>
+      <c r="J185" s="29"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>261</v>
+      </c>
+      <c r="D186" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>263</v>
+      </c>
+      <c r="D187" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E137" s="1">
-        <v>9.16</v>
-      </c>
-      <c r="F137" s="56"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>259</v>
-      </c>
-      <c r="D138" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" s="1">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>260</v>
-      </c>
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" s="1">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>261</v>
-      </c>
-      <c r="D140" s="55" t="s">
+      <c r="E187" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F187" s="53"/>
+      <c r="H187" s="53"/>
+      <c r="I187" s="53"/>
+      <c r="J187" s="29"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>264</v>
+      </c>
+      <c r="D188" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E140" s="1">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>262</v>
-      </c>
-      <c r="D141" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141" s="1">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>263</v>
-      </c>
-      <c r="D142" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E142" s="1">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="E188" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D144" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E144" s="1">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="F188" s="53"/>
+      <c r="H188" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="D145" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="1">
-        <v>9.19</v>
-      </c>
-      <c r="F145" s="56"/>
-      <c r="G145" s="62"/>
-      <c r="H145" s="56" t="s">
-        <v>267</v>
-      </c>
-      <c r="I145" s="56"/>
-      <c r="J145" s="29"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>268</v>
-      </c>
-      <c r="D146" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>270</v>
-      </c>
-      <c r="D147" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F147" s="56"/>
-      <c r="H147" s="56"/>
-      <c r="I147" s="56"/>
-      <c r="J147" s="29"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>271</v>
-      </c>
-      <c r="D148" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F148" s="56"/>
-      <c r="H148" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="I148" s="56"/>
-      <c r="J148" s="29"/>
+      <c r="I188" s="53"/>
+      <c r="J188" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D66" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" tooltip="https://hr.tp-link.com.cn/jobDetail/6572" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C14" r:id="rId2" tooltip="https://kwh0jtf778.jobs.feishu.cn/229043/position/6970889531130759461/detail" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C5" r:id="rId3" tooltip="https://jobs.bytedance.com/campus/position/7373519468960008499/detail" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C15" r:id="rId4" location="/campus/position/5355" tooltip="游戏客户端工具开发" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A67" r:id="rId5" location="/jobs" xr:uid="{BC6F17D7-8F91-47A1-948F-F3009F713D50}"/>
-    <hyperlink ref="A68" r:id="rId6" location="/jobs?page=1&amp;anchorName=jobsList" xr:uid="{044DB97C-4D67-4028-9C57-54FC939BC9E9}"/>
+    <hyperlink ref="A67" r:id="rId5" location="/jobs?page=1&amp;anchorName=jobsList" display="https://app.mokahr.com/campus_apply/sunnyoptical/45602?recommendCode=DSEsAgxs#/jobs?page=1&amp;anchorName=jobsList" xr:uid="{044DB97C-4D67-4028-9C57-54FC939BC9E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>